--- a/tests/regression_data_windows/performance_analysis_critical_isentropic_throat_windows.xlsx
+++ b/tests/regression_data_windows/performance_analysis_critical_isentropic_throat_windows.xlsx
@@ -689,40 +689,40 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.014607956726567</v>
+        <v>2.014607957017059</v>
       </c>
       <c r="C2" t="n">
-        <v>2.299999999898287</v>
+        <v>2.299999999965388</v>
       </c>
       <c r="D2" t="n">
-        <v>2.790805432350554</v>
+        <v>2.790805430781877</v>
       </c>
       <c r="E2" t="n">
-        <v>92.4644508680141</v>
+        <v>92.46445085551744</v>
       </c>
       <c r="F2" t="n">
-        <v>78.96241543684657</v>
+        <v>78.96241543755288</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1460240698389119</v>
+        <v>0.1460240697158577</v>
       </c>
       <c r="H2" t="n">
-        <v>-78.10843950668549</v>
+        <v>-78.10843950726874</v>
       </c>
       <c r="I2" t="n">
-        <v>138477.4854618879</v>
+        <v>138477.4853852901</v>
       </c>
       <c r="J2" t="n">
-        <v>85.11216070183647</v>
+        <v>85.11216065475729</v>
       </c>
       <c r="K2" t="n">
         <v>1627</v>
       </c>
       <c r="L2" t="n">
-        <v>-22.10880529692902</v>
+        <v>-22.10880530827164</v>
       </c>
       <c r="M2" t="n">
-        <v>135.4695893277991</v>
+        <v>135.4695892707191</v>
       </c>
       <c r="N2" t="n">
         <v>354.5108977203336</v>
@@ -737,13 +737,13 @@
         <v>421784.4310885898</v>
       </c>
       <c r="R2" t="n">
-        <v>372165.2480897752</v>
+        <v>372165.2480893314</v>
       </c>
       <c r="S2" t="n">
         <v>358945.442787251</v>
       </c>
       <c r="T2" t="n">
-        <v>0.7225683791408426</v>
+        <v>0.7225683789377693</v>
       </c>
       <c r="U2" t="n">
         <v>0.375758900097585</v>
@@ -760,40 +760,40 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2.071046019639105</v>
+        <v>2.071046019581845</v>
       </c>
       <c r="C3" t="n">
-        <v>2.399999999877856</v>
+        <v>2.399999999874529</v>
       </c>
       <c r="D3" t="n">
-        <v>2.801075364102432</v>
+        <v>2.801075364091447</v>
       </c>
       <c r="E3" t="n">
-        <v>92.38751733911434</v>
+        <v>92.38751733503453</v>
       </c>
       <c r="F3" t="n">
-        <v>78.15169257830159</v>
+        <v>78.15169257546719</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1540881838891637</v>
+        <v>0.1540881838824879</v>
       </c>
       <c r="H3" t="n">
-        <v>-77.30578076219075</v>
+        <v>-77.30578075934969</v>
       </c>
       <c r="I3" t="n">
-        <v>143745.3889398458</v>
+        <v>143745.3889340688</v>
       </c>
       <c r="J3" t="n">
-        <v>88.34996247071038</v>
+        <v>88.34996246715966</v>
       </c>
       <c r="K3" t="n">
         <v>1627</v>
       </c>
       <c r="L3" t="n">
-        <v>-23.97282605814604</v>
+        <v>-23.97282605477555</v>
       </c>
       <c r="M3" t="n">
-        <v>142.2541798771233</v>
+        <v>142.2541798740417</v>
       </c>
       <c r="N3" t="n">
         <v>362.3934737152361</v>
@@ -808,13 +808,13 @@
         <v>421784.4310885898</v>
       </c>
       <c r="R3" t="n">
-        <v>370466.5012741925</v>
+        <v>370466.5012760537</v>
       </c>
       <c r="S3" t="n">
         <v>356119.9161927916</v>
       </c>
       <c r="T3" t="n">
-        <v>0.7111199635289638</v>
+        <v>0.7111199635275695</v>
       </c>
       <c r="U3" t="n">
         <v>0.3675856069766728</v>
@@ -3255,10 +3255,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>82.20852516743564</v>
+        <v>82.20852511778409</v>
       </c>
       <c r="D2" t="n">
-        <v>82.20852516743564</v>
+        <v>82.20852511778409</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -3267,10 +3267,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>82.20852516743564</v>
+        <v>82.20852511778409</v>
       </c>
       <c r="H2" t="n">
-        <v>82.20852516743564</v>
+        <v>82.20852511778409</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -3279,97 +3279,97 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>292.2307534742383</v>
+        <v>292.2307534783087</v>
       </c>
       <c r="L2" t="n">
-        <v>132579.3702974859</v>
+        <v>132579.370303941</v>
       </c>
       <c r="M2" t="n">
-        <v>1.581292674666797</v>
+        <v>1.581292674721717</v>
       </c>
       <c r="N2" t="n">
-        <v>334562.9119586974</v>
+        <v>334562.911961609</v>
       </c>
       <c r="O2" t="n">
-        <v>418405.3102834873</v>
+        <v>418405.3102875691</v>
       </c>
       <c r="P2" t="n">
         <v>3782.917347718243</v>
       </c>
       <c r="Q2" t="n">
-        <v>-687079.4765709818</v>
+        <v>-687079.4765822979</v>
       </c>
       <c r="R2" t="n">
-        <v>717.7074052423184</v>
+        <v>717.7074052425023</v>
       </c>
       <c r="S2" t="n">
-        <v>1006.641275457109</v>
+        <v>1006.641275457323</v>
       </c>
       <c r="T2" t="n">
-        <v>1.402578917403309</v>
+        <v>1.402578917403247</v>
       </c>
       <c r="U2" t="n">
-        <v>0.9994971152129406</v>
+        <v>0.999497115212969</v>
       </c>
       <c r="V2" t="n">
-        <v>342.8367684403262</v>
+        <v>342.8367684427161</v>
       </c>
       <c r="W2" t="n">
-        <v>185860.4758421568</v>
+        <v>185860.4758512031</v>
       </c>
       <c r="X2" t="n">
-        <v>5.380380069882401e-06</v>
+        <v>5.380380069620523e-06</v>
       </c>
       <c r="Y2" t="n">
-        <v>132513.3819822796</v>
+        <v>132513.3819887352</v>
       </c>
       <c r="Z2" t="n">
-        <v>7.546407653633995e-06</v>
+        <v>7.546407653266359e-06</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.003434887590794067</v>
+        <v>0.003434887590746301</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.816545453086786e-05</v>
+        <v>1.816545453106705e-05</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.02581513322766288</v>
+        <v>0.0258151332279697</v>
       </c>
       <c r="AD2" t="n">
-        <v>132579.3702974859</v>
+        <v>132579.370303941</v>
       </c>
       <c r="AE2" t="n">
-        <v>1.581292674666797</v>
+        <v>1.581292674721717</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.581292674666797</v>
+        <v>1.581292674721717</v>
       </c>
       <c r="AG2" t="n">
-        <v>334562.9119586974</v>
+        <v>334562.911961609</v>
       </c>
       <c r="AH2" t="n">
-        <v>418405.3102834873</v>
+        <v>418405.3102875691</v>
       </c>
       <c r="AI2" t="n">
         <v>3782.917347718243</v>
       </c>
       <c r="AJ2" t="n">
-        <v>717.7074052423184</v>
+        <v>717.7074052425023</v>
       </c>
       <c r="AK2" t="n">
-        <v>1006.641275457109</v>
+        <v>1006.641275457323</v>
       </c>
       <c r="AL2" t="n">
-        <v>342.8367684403262</v>
+        <v>342.8367684427161</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.9994971152129406</v>
+        <v>0.999497115212969</v>
       </c>
       <c r="AN2" t="n">
-        <v>1.816545453086786e-05</v>
+        <v>1.816545453106705e-05</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.02581513322766288</v>
+        <v>0.0258151332279697</v>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
@@ -3582,16 +3582,16 @@
         <v>1</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.2397891146315153</v>
+        <v>0.2397891144850181</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.2397891146315153</v>
+        <v>0.2397891144850181</v>
       </c>
       <c r="DH2" t="n">
-        <v>187206.3546280789</v>
+        <v>187206.3545194607</v>
       </c>
       <c r="DI2" t="n">
-        <v>2.79080543230688</v>
+        <v>2.790805430718242</v>
       </c>
       <c r="DJ2" t="n">
         <v>421784.4310884894</v>
@@ -3645,121 +3645,121 @@
         <v>0</v>
       </c>
       <c r="DU2" t="n">
-        <v>274.1650384924926</v>
+        <v>274.1650384699512</v>
       </c>
       <c r="DV2" t="n">
-        <v>114.3396414416816</v>
+        <v>114.3396413877837</v>
       </c>
       <c r="DW2" t="n">
-        <v>249.1844993706021</v>
+        <v>249.1844993705324</v>
       </c>
       <c r="DX2" t="n">
-        <v>65.35172290153365</v>
+        <v>65.35172291176498</v>
       </c>
       <c r="DY2" t="n">
-        <v>274.1650384924926</v>
+        <v>274.1650384699512</v>
       </c>
       <c r="DZ2" t="n">
-        <v>114.3396414416816</v>
+        <v>114.3396413877837</v>
       </c>
       <c r="EA2" t="n">
-        <v>249.1844993706021</v>
+        <v>249.1844993705324</v>
       </c>
       <c r="EB2" t="n">
-        <v>65.35172290153363</v>
+        <v>65.35172291176499</v>
       </c>
       <c r="EC2" t="n">
-        <v>258.095863043119</v>
+        <v>258.0958630491491</v>
       </c>
       <c r="ED2" t="n">
-        <v>84173.10359871198</v>
+        <v>84173.10359265983</v>
       </c>
       <c r="EE2" t="n">
-        <v>1.136926240119373</v>
+        <v>1.136926240010916</v>
       </c>
       <c r="EF2" t="n">
-        <v>310165.5201756486</v>
+        <v>310165.5201799889</v>
       </c>
       <c r="EG2" t="n">
-        <v>384201.1969226944</v>
+        <v>384201.1969287741</v>
       </c>
       <c r="EH2" t="n">
-        <v>3788.783891555762</v>
+        <v>3788.783891599944</v>
       </c>
       <c r="EI2" t="n">
-        <v>-593668.251452257</v>
+        <v>-593668.2514804271</v>
       </c>
       <c r="EJ2" t="n">
-        <v>716.4980321126839</v>
+        <v>716.4980321127953</v>
       </c>
       <c r="EK2" t="n">
-        <v>1005.154227239253</v>
+        <v>1005.154227239159</v>
       </c>
       <c r="EL2" t="n">
-        <v>1.402870883365067</v>
+        <v>1.402870883364717</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.9993181540915809</v>
+        <v>0.9993181540917109</v>
       </c>
       <c r="EN2" t="n">
-        <v>322.1675625727914</v>
+        <v>322.1675625765567</v>
       </c>
       <c r="EO2" t="n">
-        <v>118003.7782503597</v>
+        <v>118003.7782418611</v>
       </c>
       <c r="EP2" t="n">
-        <v>8.474304931816465e-06</v>
+        <v>8.474304932426788e-06</v>
       </c>
       <c r="EQ2" t="n">
-        <v>84115.92232016682</v>
+        <v>84115.92231412968</v>
       </c>
       <c r="ER2" t="n">
-        <v>1.18883556456023e-05</v>
+        <v>1.188835564645555e-05</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.003888006291922818</v>
+        <v>0.003888006291830091</v>
       </c>
       <c r="ET2" t="n">
-        <v>1.645301935501113e-05</v>
+        <v>1.645301935531927e-05</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.02319180040341956</v>
+        <v>0.02319180040388724</v>
       </c>
       <c r="EV2" t="n">
-        <v>84173.10359871198</v>
+        <v>84173.10359265983</v>
       </c>
       <c r="EW2" t="n">
-        <v>1.136926240119373</v>
+        <v>1.136926240010916</v>
       </c>
       <c r="EX2" t="n">
-        <v>1.136926240119373</v>
+        <v>1.136926240010916</v>
       </c>
       <c r="EY2" t="n">
-        <v>310165.5201756486</v>
+        <v>310165.5201799889</v>
       </c>
       <c r="EZ2" t="n">
-        <v>384201.1969226944</v>
+        <v>384201.1969287741</v>
       </c>
       <c r="FA2" t="n">
-        <v>3788.783891555762</v>
+        <v>3788.783891599944</v>
       </c>
       <c r="FB2" t="n">
-        <v>716.4980321126839</v>
+        <v>716.4980321127953</v>
       </c>
       <c r="FC2" t="n">
-        <v>1005.154227239253</v>
+        <v>1005.154227239159</v>
       </c>
       <c r="FD2" t="n">
-        <v>322.1675625727914</v>
+        <v>322.1675625765567</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.9993181540915809</v>
+        <v>0.9993181540917109</v>
       </c>
       <c r="FF2" t="n">
-        <v>1.645301935501113e-05</v>
+        <v>1.645301935531927e-05</v>
       </c>
       <c r="FG2" t="n">
-        <v>0.02319180040341956</v>
+        <v>0.02319180040388724</v>
       </c>
       <c r="FH2" t="inlineStr">
         <is>
@@ -3770,97 +3770,97 @@
         <v>1</v>
       </c>
       <c r="FJ2" t="n">
-        <v>295.5935241440421</v>
+        <v>295.5935241441941</v>
       </c>
       <c r="FK2" t="n">
-        <v>135206.9501644749</v>
+        <v>135206.950143975</v>
       </c>
       <c r="FL2" t="n">
-        <v>1.594232983829371</v>
+        <v>1.59423298358672</v>
       </c>
       <c r="FM2" t="n">
-        <v>336974.3992198313</v>
+        <v>336974.3992199823</v>
       </c>
       <c r="FN2" t="n">
-        <v>421784.4310883891</v>
+        <v>421784.4310885899</v>
       </c>
       <c r="FO2" t="n">
-        <v>3788.78389156025</v>
+        <v>3788.783891604432</v>
       </c>
       <c r="FP2" t="n">
-        <v>-698155.5516380833</v>
+        <v>-698155.5516515181</v>
       </c>
       <c r="FQ2" t="n">
-        <v>717.8559613685679</v>
+        <v>717.8559613685233</v>
       </c>
       <c r="FR2" t="n">
-        <v>1006.775725221428</v>
+        <v>1006.775725221097</v>
       </c>
       <c r="FS2" t="n">
-        <v>1.402475955346313</v>
+        <v>1.402475955345939</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.9995305694123285</v>
+        <v>0.9995305694124008</v>
       </c>
       <c r="FU2" t="n">
-        <v>344.8025797536943</v>
+        <v>344.8025797537617</v>
       </c>
       <c r="FV2" t="n">
-        <v>189536.4766659767</v>
+        <v>189536.4766372023</v>
       </c>
       <c r="FW2" t="n">
-        <v>5.276029277268444e-06</v>
+        <v>5.276029278069422e-06</v>
       </c>
       <c r="FX2" t="n">
-        <v>135144.1897762693</v>
+        <v>135144.1897557884</v>
       </c>
       <c r="FY2" t="n">
-        <v>7.399504201072176e-06</v>
+        <v>7.399504202193558e-06</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.003395614454317745</v>
+        <v>0.003395614454314075</v>
       </c>
       <c r="GA2" t="n">
-        <v>1.832923467031292e-05</v>
+        <v>1.832923467031733e-05</v>
       </c>
       <c r="GB2" t="n">
-        <v>0.02606725562223148</v>
+        <v>0.02606725562223624</v>
       </c>
       <c r="GC2" t="n">
-        <v>135206.9501644749</v>
+        <v>135206.950143975</v>
       </c>
       <c r="GD2" t="n">
-        <v>1.594232983829371</v>
+        <v>1.59423298358672</v>
       </c>
       <c r="GE2" t="n">
-        <v>1.594232983829371</v>
+        <v>1.59423298358672</v>
       </c>
       <c r="GF2" t="n">
-        <v>336974.3992198313</v>
+        <v>336974.3992199823</v>
       </c>
       <c r="GG2" t="n">
-        <v>421784.4310883891</v>
+        <v>421784.4310885899</v>
       </c>
       <c r="GH2" t="n">
-        <v>3788.78389156025</v>
+        <v>3788.783891604432</v>
       </c>
       <c r="GI2" t="n">
-        <v>717.8559613685679</v>
+        <v>717.8559613685233</v>
       </c>
       <c r="GJ2" t="n">
-        <v>1006.775725221428</v>
+        <v>1006.775725221097</v>
       </c>
       <c r="GK2" t="n">
-        <v>344.8025797536943</v>
+        <v>344.8025797537617</v>
       </c>
       <c r="GL2" t="n">
-        <v>0.9995305694123285</v>
+        <v>0.9995305694124008</v>
       </c>
       <c r="GM2" t="n">
-        <v>1.832923467031292e-05</v>
+        <v>1.832923467031733e-05</v>
       </c>
       <c r="GN2" t="n">
-        <v>0.02606725562223148</v>
+        <v>0.02606725562223624</v>
       </c>
       <c r="GO2" t="inlineStr">
         <is>
@@ -3871,97 +3871,97 @@
         <v>1</v>
       </c>
       <c r="GQ2" t="n">
-        <v>295.5935241440421</v>
+        <v>295.5935241441941</v>
       </c>
       <c r="GR2" t="n">
-        <v>135206.9501644749</v>
+        <v>135206.950143975</v>
       </c>
       <c r="GS2" t="n">
-        <v>1.594232983829371</v>
+        <v>1.59423298358672</v>
       </c>
       <c r="GT2" t="n">
-        <v>336974.3992198313</v>
+        <v>336974.3992199823</v>
       </c>
       <c r="GU2" t="n">
-        <v>421784.4310883891</v>
+        <v>421784.4310885899</v>
       </c>
       <c r="GV2" t="n">
-        <v>3788.78389156025</v>
+        <v>3788.783891604432</v>
       </c>
       <c r="GW2" t="n">
-        <v>-698155.5516380833</v>
+        <v>-698155.5516515181</v>
       </c>
       <c r="GX2" t="n">
-        <v>717.8559613685679</v>
+        <v>717.8559613685233</v>
       </c>
       <c r="GY2" t="n">
-        <v>1006.775725221428</v>
+        <v>1006.775725221097</v>
       </c>
       <c r="GZ2" t="n">
-        <v>1.402475955346313</v>
+        <v>1.402475955345939</v>
       </c>
       <c r="HA2" t="n">
-        <v>0.9995305694123285</v>
+        <v>0.9995305694124008</v>
       </c>
       <c r="HB2" t="n">
-        <v>344.8025797536943</v>
+        <v>344.8025797537617</v>
       </c>
       <c r="HC2" t="n">
-        <v>189536.4766659767</v>
+        <v>189536.4766372023</v>
       </c>
       <c r="HD2" t="n">
-        <v>5.276029277268444e-06</v>
+        <v>5.276029278069422e-06</v>
       </c>
       <c r="HE2" t="n">
-        <v>135144.1897762693</v>
+        <v>135144.1897557884</v>
       </c>
       <c r="HF2" t="n">
-        <v>7.399504201072176e-06</v>
+        <v>7.399504202193558e-06</v>
       </c>
       <c r="HG2" t="n">
-        <v>0.003395614454317745</v>
+        <v>0.003395614454314075</v>
       </c>
       <c r="HH2" t="n">
-        <v>1.832923467031292e-05</v>
+        <v>1.832923467031733e-05</v>
       </c>
       <c r="HI2" t="n">
-        <v>0.02606725562223148</v>
+        <v>0.02606725562223624</v>
       </c>
       <c r="HJ2" t="n">
-        <v>135206.9501644749</v>
+        <v>135206.950143975</v>
       </c>
       <c r="HK2" t="n">
-        <v>1.594232983829371</v>
+        <v>1.59423298358672</v>
       </c>
       <c r="HL2" t="n">
-        <v>1.594232983829371</v>
+        <v>1.59423298358672</v>
       </c>
       <c r="HM2" t="n">
-        <v>336974.3992198313</v>
+        <v>336974.3992199823</v>
       </c>
       <c r="HN2" t="n">
-        <v>421784.4310883891</v>
+        <v>421784.4310885899</v>
       </c>
       <c r="HO2" t="n">
-        <v>3788.78389156025</v>
+        <v>3788.783891604432</v>
       </c>
       <c r="HP2" t="n">
-        <v>717.8559613685679</v>
+        <v>717.8559613685233</v>
       </c>
       <c r="HQ2" t="n">
-        <v>1006.775725221428</v>
+        <v>1006.775725221097</v>
       </c>
       <c r="HR2" t="n">
-        <v>344.8025797536943</v>
+        <v>344.8025797537617</v>
       </c>
       <c r="HS2" t="n">
-        <v>0.9995305694123285</v>
+        <v>0.9995305694124008</v>
       </c>
       <c r="HT2" t="n">
-        <v>1.832923467031292e-05</v>
+        <v>1.832923467031733e-05</v>
       </c>
       <c r="HU2" t="n">
-        <v>0.02606725562223148</v>
+        <v>0.02606725562223624</v>
       </c>
       <c r="HV2" t="inlineStr">
         <is>
@@ -3972,166 +3972,166 @@
         <v>1</v>
       </c>
       <c r="HX2" t="n">
-        <v>0.8510013742632671</v>
+        <v>0.8510013741833534</v>
       </c>
       <c r="HY2" t="n">
-        <v>0.8510013742632671</v>
+        <v>0.8510013741833534</v>
       </c>
       <c r="HZ2" t="n">
-        <v>495605.9297261992</v>
+        <v>495605.9296288911</v>
       </c>
       <c r="IA2" t="n">
-        <v>2.790805432273846</v>
+        <v>2.790805430692076</v>
       </c>
       <c r="IB2" t="n">
         <v>421784.4310884894</v>
       </c>
       <c r="IC2" t="n">
-        <v>0.01561897651507948</v>
+        <v>0.01561897652502163</v>
       </c>
       <c r="ID2" t="n">
-        <v>-1.808493700480447e-07</v>
+        <v>-1.808493700769923e-07</v>
       </c>
       <c r="IE2" t="n">
-        <v>0.01378013287977033</v>
+        <v>0.01378013288008288</v>
       </c>
       <c r="IF2" t="n">
-        <v>0.02533043296426881</v>
+        <v>0.02533043296011035</v>
       </c>
       <c r="IG2" t="n">
         <v>0</v>
       </c>
       <c r="IH2" t="n">
-        <v>0.05472936150974857</v>
+        <v>0.05472936151584479</v>
       </c>
       <c r="II2" t="n">
-        <v>-1.414317829517842e-10</v>
+        <v>2.696580667094217e-10</v>
       </c>
       <c r="IJ2" t="n">
         <v>0</v>
       </c>
       <c r="IK2" t="n">
-        <v>382691.4762419219</v>
+        <v>382691.4762366299</v>
       </c>
       <c r="IL2" t="n">
         <v>165.3032</v>
       </c>
       <c r="IM2" t="n">
-        <v>274.1650384924926</v>
+        <v>274.1650384699512</v>
       </c>
       <c r="IN2" t="n">
-        <v>114.3396414416815</v>
+        <v>114.3396413877837</v>
       </c>
       <c r="IO2" t="n">
-        <v>249.1844993706022</v>
+        <v>249.1844993705324</v>
       </c>
       <c r="IP2" t="n">
-        <v>65.35172290153365</v>
+        <v>65.35172291176498</v>
       </c>
       <c r="IQ2" t="n">
-        <v>141.808412970151</v>
+        <v>141.8084129266521</v>
       </c>
       <c r="IR2" t="n">
-        <v>114.3396414416815</v>
+        <v>114.3396413877837</v>
       </c>
       <c r="IS2" t="n">
-        <v>83.88129937060216</v>
+        <v>83.88129937053239</v>
       </c>
       <c r="IT2" t="n">
-        <v>36.26433848962643</v>
+        <v>36.26433850248485</v>
       </c>
       <c r="IU2" t="n">
-        <v>258.0958630431186</v>
+        <v>258.0958630494486</v>
       </c>
       <c r="IV2" t="n">
-        <v>84173.10359858346</v>
+        <v>84173.10359262946</v>
       </c>
       <c r="IW2" t="n">
-        <v>1.136926240117638</v>
+        <v>1.136926240009181</v>
       </c>
       <c r="IX2" t="n">
-        <v>310165.5201756487</v>
+        <v>310165.5201802039</v>
       </c>
       <c r="IY2" t="n">
-        <v>384201.1969226944</v>
+        <v>384201.1969290752</v>
       </c>
       <c r="IZ2" t="n">
-        <v>3788.7838915562</v>
+        <v>3788.783891601214</v>
       </c>
       <c r="JA2" t="n">
-        <v>-593668.2514523685</v>
+        <v>-593668.2514815886</v>
       </c>
       <c r="JB2" t="n">
-        <v>716.4980321126839</v>
+        <v>716.4980321128018</v>
       </c>
       <c r="JC2" t="n">
-        <v>1005.15422723925</v>
+        <v>1005.15422723916</v>
       </c>
       <c r="JD2" t="n">
-        <v>1.402870883365063</v>
+        <v>1.402870883364707</v>
       </c>
       <c r="JE2" t="n">
-        <v>0.9993181540915819</v>
+        <v>0.9993181540917152</v>
       </c>
       <c r="JF2" t="n">
-        <v>322.1675625727911</v>
+        <v>322.1675625767438</v>
       </c>
       <c r="JG2" t="n">
-        <v>118003.7782501794</v>
+        <v>118003.7782418181</v>
       </c>
       <c r="JH2" t="n">
-        <v>8.474304931829414e-06</v>
+        <v>8.474304932429873e-06</v>
       </c>
       <c r="JI2" t="n">
-        <v>84115.92232003847</v>
+        <v>84115.92231409971</v>
       </c>
       <c r="JJ2" t="n">
-        <v>1.188835564562044e-05</v>
+        <v>1.188835564645979e-05</v>
       </c>
       <c r="JK2" t="n">
-        <v>0.003888006291922804</v>
+        <v>0.003888006291825528</v>
       </c>
       <c r="JL2" t="n">
-        <v>1.645301935501109e-05</v>
+        <v>1.645301935533462e-05</v>
       </c>
       <c r="JM2" t="n">
-        <v>0.02319180040341949</v>
+        <v>0.02319180040391057</v>
       </c>
       <c r="JN2" t="n">
-        <v>84173.10359858346</v>
+        <v>84173.10359262946</v>
       </c>
       <c r="JO2" t="n">
-        <v>1.136926240117638</v>
+        <v>1.136926240009181</v>
       </c>
       <c r="JP2" t="n">
-        <v>1.136926240117638</v>
+        <v>1.136926240009181</v>
       </c>
       <c r="JQ2" t="n">
-        <v>310165.5201756487</v>
+        <v>310165.5201802039</v>
       </c>
       <c r="JR2" t="n">
-        <v>384201.1969226944</v>
+        <v>384201.1969290752</v>
       </c>
       <c r="JS2" t="n">
-        <v>3788.7838915562</v>
+        <v>3788.783891601214</v>
       </c>
       <c r="JT2" t="n">
-        <v>716.4980321126839</v>
+        <v>716.4980321128018</v>
       </c>
       <c r="JU2" t="n">
-        <v>1005.15422723925</v>
+        <v>1005.15422723916</v>
       </c>
       <c r="JV2" t="n">
-        <v>322.1675625727911</v>
+        <v>322.1675625767438</v>
       </c>
       <c r="JW2" t="n">
-        <v>0.9993181540915819</v>
+        <v>0.9993181540917152</v>
       </c>
       <c r="JX2" t="n">
-        <v>1.645301935501109e-05</v>
+        <v>1.645301935533462e-05</v>
       </c>
       <c r="JY2" t="n">
-        <v>0.02319180040341949</v>
+        <v>0.02319180040391057</v>
       </c>
       <c r="JZ2" t="inlineStr">
         <is>
@@ -4142,97 +4142,97 @@
         <v>1</v>
       </c>
       <c r="KB2" t="n">
-        <v>295.5935241439415</v>
+        <v>295.5935241442926</v>
       </c>
       <c r="KC2" t="n">
-        <v>135206.9501641088</v>
+        <v>135206.9501435355</v>
       </c>
       <c r="KD2" t="n">
-        <v>1.594232983825596</v>
+        <v>1.594232983581003</v>
       </c>
       <c r="KE2" t="n">
-        <v>336974.3992197597</v>
+        <v>336974.3992200539</v>
       </c>
       <c r="KF2" t="n">
-        <v>421784.4310882886</v>
+        <v>421784.4310886899</v>
       </c>
       <c r="KG2" t="n">
-        <v>3788.783891560687</v>
+        <v>3788.783891605701</v>
       </c>
       <c r="KH2" t="n">
-        <v>-698155.5516379321</v>
+        <v>-698155.5516521669</v>
       </c>
       <c r="KI2" t="n">
-        <v>717.8559613685629</v>
+        <v>717.8559613685266</v>
       </c>
       <c r="KJ2" t="n">
-        <v>1006.77572522142</v>
+        <v>1006.775725221093</v>
       </c>
       <c r="KK2" t="n">
-        <v>1.402475955346311</v>
+        <v>1.402475955345927</v>
       </c>
       <c r="KL2" t="n">
-        <v>0.9995305694123285</v>
+        <v>0.9995305694124036</v>
       </c>
       <c r="KM2" t="n">
-        <v>344.8025797536354</v>
+        <v>344.8025797538186</v>
       </c>
       <c r="KN2" t="n">
-        <v>189536.4766654632</v>
+        <v>189536.4766365851</v>
       </c>
       <c r="KO2" t="n">
-        <v>5.276029277282737e-06</v>
+        <v>5.276029278086601e-06</v>
       </c>
       <c r="KP2" t="n">
-        <v>135144.1897759034</v>
+        <v>135144.1897553496</v>
       </c>
       <c r="KQ2" t="n">
-        <v>7.399504201092212e-06</v>
+        <v>7.399504202217587e-06</v>
       </c>
       <c r="KR2" t="n">
-        <v>0.003395614454318878</v>
+        <v>0.003395614454312888</v>
       </c>
       <c r="KS2" t="n">
-        <v>1.832923467030799e-05</v>
+        <v>1.832923467032204e-05</v>
       </c>
       <c r="KT2" t="n">
-        <v>0.02606725562222386</v>
+        <v>0.02606725562224345</v>
       </c>
       <c r="KU2" t="n">
-        <v>135206.9501641088</v>
+        <v>135206.9501435355</v>
       </c>
       <c r="KV2" t="n">
-        <v>1.594232983825596</v>
+        <v>1.594232983581003</v>
       </c>
       <c r="KW2" t="n">
-        <v>1.594232983825596</v>
+        <v>1.594232983581003</v>
       </c>
       <c r="KX2" t="n">
-        <v>336974.3992197597</v>
+        <v>336974.3992200539</v>
       </c>
       <c r="KY2" t="n">
-        <v>421784.4310882886</v>
+        <v>421784.4310886899</v>
       </c>
       <c r="KZ2" t="n">
-        <v>3788.783891560687</v>
+        <v>3788.783891605701</v>
       </c>
       <c r="LA2" t="n">
-        <v>717.8559613685629</v>
+        <v>717.8559613685266</v>
       </c>
       <c r="LB2" t="n">
-        <v>1006.77572522142</v>
+        <v>1006.775725221093</v>
       </c>
       <c r="LC2" t="n">
-        <v>344.8025797536354</v>
+        <v>344.8025797538186</v>
       </c>
       <c r="LD2" t="n">
-        <v>0.9995305694123285</v>
+        <v>0.9995305694124036</v>
       </c>
       <c r="LE2" t="n">
-        <v>1.832923467030799e-05</v>
+        <v>1.832923467032204e-05</v>
       </c>
       <c r="LF2" t="n">
-        <v>0.02606725562222386</v>
+        <v>0.02606725562224345</v>
       </c>
       <c r="LG2" t="inlineStr">
         <is>
@@ -4243,97 +4243,97 @@
         <v>1</v>
       </c>
       <c r="LI2" t="n">
-        <v>268.1325478428539</v>
+        <v>268.1325478429231</v>
       </c>
       <c r="LJ2" t="n">
-        <v>96169.14343015384</v>
+        <v>96169.1434152037</v>
       </c>
       <c r="LK2" t="n">
-        <v>1.250276210472469</v>
+        <v>1.250276210277659</v>
       </c>
       <c r="LL2" t="n">
-        <v>317337.6916890429</v>
+        <v>317337.6916891274</v>
       </c>
       <c r="LM2" t="n">
-        <v>394256.0099171505</v>
+        <v>394256.0099172625</v>
       </c>
       <c r="LN2" t="n">
-        <v>3788.783891562148</v>
+        <v>3788.783891607162</v>
       </c>
       <c r="LO2" t="n">
-        <v>-621640.2681533716</v>
+        <v>-621640.2681655915</v>
       </c>
       <c r="LP2" t="n">
-        <v>716.7853702994533</v>
+        <v>716.7853702994066</v>
       </c>
       <c r="LQ2" t="n">
-        <v>1005.511312851258</v>
+        <v>1005.51131285095</v>
       </c>
       <c r="LR2" t="n">
-        <v>1.402806690140988</v>
+        <v>1.402806690140648</v>
       </c>
       <c r="LS2" t="n">
-        <v>0.9993647230925605</v>
+        <v>0.9993647230926598</v>
       </c>
       <c r="LT2" t="n">
-        <v>328.3798436108567</v>
+        <v>328.3798436108918</v>
       </c>
       <c r="LU2" t="n">
-        <v>134821.4368050953</v>
+        <v>134821.4367841171</v>
       </c>
       <c r="LV2" t="n">
-        <v>7.417218090070133e-06</v>
+        <v>7.417218091224252e-06</v>
       </c>
       <c r="LW2" t="n">
-        <v>96108.35031842145</v>
+        <v>96108.35030349021</v>
       </c>
       <c r="LX2" t="n">
-        <v>1.040492315898514e-05</v>
+        <v>1.040492316060163e-05</v>
       </c>
       <c r="LY2" t="n">
-        <v>0.003742747758420093</v>
+        <v>0.003742747758417056</v>
       </c>
       <c r="LZ2" t="n">
-        <v>1.696534104364819e-05</v>
+        <v>1.696534104364941e-05</v>
       </c>
       <c r="MA2" t="n">
-        <v>0.02397353035649907</v>
+        <v>0.02397353035649908</v>
       </c>
       <c r="MB2" t="n">
-        <v>96169.14343015384</v>
+        <v>96169.1434152037</v>
       </c>
       <c r="MC2" t="n">
-        <v>1.250276210472469</v>
+        <v>1.250276210277659</v>
       </c>
       <c r="MD2" t="n">
-        <v>1.250276210472469</v>
+        <v>1.250276210277659</v>
       </c>
       <c r="ME2" t="n">
-        <v>317337.6916890429</v>
+        <v>317337.6916891274</v>
       </c>
       <c r="MF2" t="n">
-        <v>394256.0099171505</v>
+        <v>394256.0099172625</v>
       </c>
       <c r="MG2" t="n">
-        <v>3788.783891562148</v>
+        <v>3788.783891607162</v>
       </c>
       <c r="MH2" t="n">
-        <v>716.7853702994533</v>
+        <v>716.7853702994066</v>
       </c>
       <c r="MI2" t="n">
-        <v>1005.511312851258</v>
+        <v>1005.51131285095</v>
       </c>
       <c r="MJ2" t="n">
-        <v>328.3798436108567</v>
+        <v>328.3798436108918</v>
       </c>
       <c r="MK2" t="n">
-        <v>0.9993647230925605</v>
+        <v>0.9993647230926598</v>
       </c>
       <c r="ML2" t="n">
-        <v>1.696534104364819e-05</v>
+        <v>1.696534104364941e-05</v>
       </c>
       <c r="MM2" t="n">
-        <v>0.02397353035649907</v>
+        <v>0.02397353035649908</v>
       </c>
       <c r="MN2" t="inlineStr">
         <is>
@@ -4344,139 +4344,139 @@
         <v>1</v>
       </c>
       <c r="MP2" t="n">
-        <v>0.8510013742632678</v>
+        <v>0.8510013741828591</v>
       </c>
       <c r="MQ2" t="n">
-        <v>0.4401697422226066</v>
+        <v>0.4401697420821867</v>
       </c>
       <c r="MR2" t="n">
-        <v>255366.0092317418</v>
+        <v>255366.0091240279</v>
       </c>
       <c r="MS2" t="n">
-        <v>2.790805432269584</v>
+        <v>2.790805430687819</v>
       </c>
       <c r="MT2" t="n">
-        <v>380593.4359520305</v>
+        <v>380593.4359522429</v>
       </c>
       <c r="MU2" t="n">
         <v>165.3032</v>
       </c>
       <c r="MV2" t="n">
-        <v>135.4695893277991</v>
+        <v>135.4695892707191</v>
       </c>
       <c r="MW2" t="n">
-        <v>125.5086189696105</v>
+        <v>125.508618906634</v>
       </c>
       <c r="MX2" t="n">
-        <v>-50.9862353678291</v>
+        <v>-50.98623537119255</v>
       </c>
       <c r="MY2" t="n">
-        <v>-22.10880529692902</v>
+        <v>-22.10880530827164</v>
       </c>
       <c r="MZ2" t="n">
-        <v>250.0670575813479</v>
+        <v>250.0670575526492</v>
       </c>
       <c r="NA2" t="n">
-        <v>125.5086189696105</v>
+        <v>125.508618906634</v>
       </c>
       <c r="NB2" t="n">
-        <v>-216.2894353678291</v>
+        <v>-216.2894353711926</v>
       </c>
       <c r="NC2" t="n">
-        <v>-59.87422706029294</v>
+        <v>-59.87422707315999</v>
       </c>
       <c r="ND2" t="n">
-        <v>236.9057734238024</v>
+        <v>236.905773431152</v>
       </c>
       <c r="NE2" t="n">
-        <v>60000.00000165429</v>
+        <v>59999.99999990386</v>
       </c>
       <c r="NF2" t="n">
-        <v>0.8829486054533245</v>
+        <v>0.8829486054000677</v>
       </c>
       <c r="NG2" t="n">
-        <v>295035.118162245</v>
+        <v>295035.1181675176</v>
       </c>
       <c r="NH2" t="n">
-        <v>362989.2432733538</v>
+        <v>362989.2432807428</v>
       </c>
       <c r="NI2" t="n">
-        <v>3800.133275757141</v>
+        <v>3800.133275796698</v>
       </c>
       <c r="NJ2" t="n">
-        <v>-537284.2695334193</v>
+        <v>-537284.2695633314</v>
       </c>
       <c r="NK2" t="n">
-        <v>716.033178675794</v>
+        <v>716.033178675881</v>
       </c>
       <c r="NL2" t="n">
-        <v>1004.48786694972</v>
+        <v>1004.487866949661</v>
       </c>
       <c r="NM2" t="n">
-        <v>1.402851008674463</v>
+        <v>1.40285100867421</v>
       </c>
       <c r="NN2" t="n">
-        <v>0.9992725343294003</v>
+        <v>0.9992725343295199</v>
       </c>
       <c r="NO2" t="n">
-        <v>308.6426631669157</v>
+        <v>308.6426631717124</v>
       </c>
       <c r="NP2" t="n">
-        <v>84109.94332453255</v>
+        <v>84109.94332207365</v>
       </c>
       <c r="NQ2" t="n">
-        <v>1.188920073506134e-05</v>
+        <v>1.188920073540891e-05</v>
       </c>
       <c r="NR2" t="n">
-        <v>59956.43358021819</v>
+        <v>59956.43357847621</v>
       </c>
       <c r="NS2" t="n">
-        <v>1.667877724351397e-05</v>
+        <v>1.667877724399856e-05</v>
       </c>
       <c r="NT2" t="n">
-        <v>0.004234486916503707</v>
+        <v>0.004234486916370761</v>
       </c>
       <c r="NU2" t="n">
-        <v>1.534470472111242e-05</v>
+        <v>1.534470472150178e-05</v>
       </c>
       <c r="NV2" t="n">
-        <v>0.02150906073073812</v>
+        <v>0.02150906073132568</v>
       </c>
       <c r="NW2" t="n">
-        <v>60000.00000165429</v>
+        <v>59999.99999990386</v>
       </c>
       <c r="NX2" t="n">
-        <v>0.8829486054533245</v>
+        <v>0.8829486054000677</v>
       </c>
       <c r="NY2" t="n">
-        <v>0.8829486054533245</v>
+        <v>0.8829486054000677</v>
       </c>
       <c r="NZ2" t="n">
-        <v>295035.118162245</v>
+        <v>295035.1181675176</v>
       </c>
       <c r="OA2" t="n">
-        <v>362989.2432733538</v>
+        <v>362989.2432807428</v>
       </c>
       <c r="OB2" t="n">
-        <v>3800.133275757141</v>
+        <v>3800.133275796698</v>
       </c>
       <c r="OC2" t="n">
-        <v>716.033178675794</v>
+        <v>716.033178675881</v>
       </c>
       <c r="OD2" t="n">
-        <v>1004.48786694972</v>
+        <v>1004.487866949661</v>
       </c>
       <c r="OE2" t="n">
-        <v>308.6426631669157</v>
+        <v>308.6426631717124</v>
       </c>
       <c r="OF2" t="n">
-        <v>0.9992725343294003</v>
+        <v>0.9992725343295199</v>
       </c>
       <c r="OG2" t="n">
-        <v>1.534470472111242e-05</v>
+        <v>1.534470472150178e-05</v>
       </c>
       <c r="OH2" t="n">
-        <v>0.02150906073073812</v>
+        <v>0.02150906073132568</v>
       </c>
       <c r="OI2" t="inlineStr">
         <is>
@@ -4487,97 +4487,97 @@
         <v>1</v>
       </c>
       <c r="OK2" t="n">
-        <v>246.0690979990264</v>
+        <v>246.0690979985519</v>
       </c>
       <c r="OL2" t="n">
-        <v>68499.67981955716</v>
+        <v>68499.67980968</v>
       </c>
       <c r="OM2" t="n">
-        <v>0.9704638759458299</v>
+        <v>0.9704638758076758</v>
       </c>
       <c r="ON2" t="n">
-        <v>301580.7765629023</v>
+        <v>301580.7765625879</v>
       </c>
       <c r="OO2" t="n">
-        <v>372165.2480897752</v>
+        <v>372165.2480893314</v>
       </c>
       <c r="OP2" t="n">
-        <v>3800.133275765712</v>
+        <v>3800.133275805269</v>
       </c>
       <c r="OQ2" t="n">
-        <v>-562930.119353979</v>
+        <v>-562930.1193623535</v>
       </c>
       <c r="OR2" t="n">
-        <v>716.2056506675425</v>
+        <v>716.2056506674938</v>
       </c>
       <c r="OS2" t="n">
-        <v>1004.720142897479</v>
+        <v>1004.720142897225</v>
       </c>
       <c r="OT2" t="n">
-        <v>1.402837497806706</v>
+        <v>1.402837497806447</v>
       </c>
       <c r="OU2" t="n">
-        <v>0.99929993714984</v>
+        <v>0.9992999371499345</v>
       </c>
       <c r="OV2" t="n">
-        <v>314.5622301069835</v>
+        <v>314.5622301066809</v>
       </c>
       <c r="OW2" t="n">
-        <v>96026.81495652419</v>
+        <v>96026.81494266915</v>
       </c>
       <c r="OX2" t="n">
-        <v>1.041375787016102e-05</v>
+        <v>1.041375787166355e-05</v>
       </c>
       <c r="OY2" t="n">
-        <v>68451.84499748491</v>
+        <v>68451.84498762111</v>
       </c>
       <c r="OZ2" t="n">
-        <v>1.460881003334158e-05</v>
+        <v>1.460881003544668e-05</v>
       </c>
       <c r="PA2" t="n">
-        <v>0.004077109595051909</v>
+        <v>0.004077109595057938</v>
       </c>
       <c r="PB2" t="n">
-        <v>1.582826903967936e-05</v>
+        <v>1.5828269039653e-05</v>
       </c>
       <c r="PC2" t="n">
-        <v>0.02224158540623868</v>
+        <v>0.0222415854061973</v>
       </c>
       <c r="PD2" t="n">
-        <v>68499.67981955716</v>
+        <v>68499.67980968</v>
       </c>
       <c r="PE2" t="n">
-        <v>0.9704638759458299</v>
+        <v>0.9704638758076758</v>
       </c>
       <c r="PF2" t="n">
-        <v>0.9704638759458299</v>
+        <v>0.9704638758076758</v>
       </c>
       <c r="PG2" t="n">
-        <v>301580.7765629023</v>
+        <v>301580.7765625879</v>
       </c>
       <c r="PH2" t="n">
-        <v>372165.2480897752</v>
+        <v>372165.2480893314</v>
       </c>
       <c r="PI2" t="n">
-        <v>3800.133275765712</v>
+        <v>3800.133275805269</v>
       </c>
       <c r="PJ2" t="n">
-        <v>716.2056506675425</v>
+        <v>716.2056506674938</v>
       </c>
       <c r="PK2" t="n">
-        <v>1004.720142897479</v>
+        <v>1004.720142897225</v>
       </c>
       <c r="PL2" t="n">
-        <v>314.5622301069835</v>
+        <v>314.5622301066809</v>
       </c>
       <c r="PM2" t="n">
-        <v>0.99929993714984</v>
+        <v>0.9992999371499345</v>
       </c>
       <c r="PN2" t="n">
-        <v>1.582826903967936e-05</v>
+        <v>1.5828269039653e-05</v>
       </c>
       <c r="PO2" t="n">
-        <v>0.02224158540623868</v>
+        <v>0.0222415854061973</v>
       </c>
       <c r="PP2" t="inlineStr">
         <is>
@@ -4588,97 +4588,97 @@
         <v>1</v>
       </c>
       <c r="PR2" t="n">
-        <v>268.1220053390682</v>
+        <v>268.1220053392441</v>
       </c>
       <c r="PS2" t="n">
-        <v>92438.70529102097</v>
+        <v>92438.70527852931</v>
       </c>
       <c r="PT2" t="n">
-        <v>1.20179543558599</v>
+        <v>1.201795435422696</v>
       </c>
       <c r="PU2" t="n">
-        <v>317338.8386967192</v>
+        <v>317338.8386968745</v>
       </c>
       <c r="PV2" t="n">
-        <v>394256.0099172509</v>
+        <v>394256.0099174631</v>
       </c>
       <c r="PW2" t="n">
-        <v>3800.133275757141</v>
+        <v>3800.133275796698</v>
       </c>
       <c r="PX2" t="n">
-        <v>-624643.3445344758</v>
+        <v>-624643.3445455384</v>
       </c>
       <c r="PY2" t="n">
-        <v>716.7730159694606</v>
+        <v>716.7730159694249</v>
       </c>
       <c r="PZ2" t="n">
-        <v>1005.433966599013</v>
+        <v>1005.433966598756</v>
       </c>
       <c r="QA2" t="n">
-        <v>1.402722959986333</v>
+        <v>1.402722959986045</v>
       </c>
       <c r="QB2" t="n">
-        <v>0.9993891147805037</v>
+        <v>0.9993891147805881</v>
       </c>
       <c r="QC2" t="n">
-        <v>328.3715632790182</v>
+        <v>328.3715632791198</v>
       </c>
       <c r="QD2" t="n">
-        <v>129587.0583036916</v>
+        <v>129587.0582861641</v>
       </c>
       <c r="QE2" t="n">
-        <v>7.716819974850164e-06</v>
+        <v>7.716819975893912e-06</v>
       </c>
       <c r="QF2" t="n">
-        <v>92382.5031743647</v>
+        <v>92382.50316188835</v>
       </c>
       <c r="QG2" t="n">
-        <v>1.082456055680348e-05</v>
+        <v>1.082456055826534e-05</v>
       </c>
       <c r="QH2" t="n">
-        <v>0.003742382741113289</v>
+        <v>0.003742382741109088</v>
       </c>
       <c r="QI2" t="n">
-        <v>1.696424110322969e-05</v>
+        <v>1.696424110323667e-05</v>
       </c>
       <c r="QJ2" t="n">
-        <v>0.02397139285349097</v>
+        <v>0.02397139285350008</v>
       </c>
       <c r="QK2" t="n">
-        <v>92438.70529102097</v>
+        <v>92438.70527852931</v>
       </c>
       <c r="QL2" t="n">
-        <v>1.20179543558599</v>
+        <v>1.201795435422696</v>
       </c>
       <c r="QM2" t="n">
-        <v>1.20179543558599</v>
+        <v>1.201795435422696</v>
       </c>
       <c r="QN2" t="n">
-        <v>317338.8386967192</v>
+        <v>317338.8386968745</v>
       </c>
       <c r="QO2" t="n">
-        <v>394256.0099172509</v>
+        <v>394256.0099174631</v>
       </c>
       <c r="QP2" t="n">
-        <v>3800.133275757141</v>
+        <v>3800.133275796698</v>
       </c>
       <c r="QQ2" t="n">
-        <v>716.7730159694606</v>
+        <v>716.7730159694249</v>
       </c>
       <c r="QR2" t="n">
-        <v>1005.433966599013</v>
+        <v>1005.433966598756</v>
       </c>
       <c r="QS2" t="n">
-        <v>328.3715632790182</v>
+        <v>328.3715632791198</v>
       </c>
       <c r="QT2" t="n">
-        <v>0.9993891147805037</v>
+        <v>0.9993891147805881</v>
       </c>
       <c r="QU2" t="n">
-        <v>1.696424110322969e-05</v>
+        <v>1.696424110323667e-05</v>
       </c>
       <c r="QV2" t="n">
-        <v>0.02397139285349097</v>
+        <v>0.02397139285350008</v>
       </c>
       <c r="QW2" t="inlineStr">
         <is>
@@ -4689,46 +4689,46 @@
         <v>1</v>
       </c>
       <c r="QY2" t="n">
-        <v>0.4389204912171729</v>
+        <v>0.4389204910254127</v>
       </c>
       <c r="QZ2" t="n">
-        <v>0.8102154608681247</v>
+        <v>0.810215460762549</v>
       </c>
       <c r="RA2" t="n">
-        <v>374979.7236216542</v>
+        <v>374979.7235464875</v>
       </c>
       <c r="RB2" t="n">
-        <v>2.790805432350554</v>
+        <v>2.790805430781877</v>
       </c>
       <c r="RC2" t="n">
-        <v>380593.4359520305</v>
+        <v>380593.4359522429</v>
       </c>
       <c r="RD2" t="n">
-        <v>0.02607389603413926</v>
+        <v>0.02607389602117786</v>
       </c>
       <c r="RE2" t="n">
-        <v>0.002221780596028547</v>
+        <v>0.002221780604087382</v>
       </c>
       <c r="RF2" t="n">
-        <v>0.01178846742576353</v>
+        <v>0.01178846742615484</v>
       </c>
       <c r="RG2" t="n">
-        <v>0.03262518113139132</v>
+        <v>0.03262518113133096</v>
       </c>
       <c r="RH2" t="n">
-        <v>0.04229027499091735</v>
+        <v>0.04229027500535012</v>
       </c>
       <c r="RI2" t="n">
-        <v>0.11499960017824</v>
+        <v>0.1149996001881012</v>
       </c>
       <c r="RJ2" t="n">
-        <v>1.361971646574034e-11</v>
+        <v>-3.783004465240936e-11</v>
       </c>
       <c r="RK2" t="n">
         <v>0</v>
       </c>
       <c r="RL2" t="n">
-        <v>360315.6411343343</v>
+        <v>360315.6411429182</v>
       </c>
     </row>
     <row r="3">
@@ -4739,10 +4739,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>82.5296150431254</v>
+        <v>82.52961504278727</v>
       </c>
       <c r="D3" t="n">
-        <v>82.5296150431254</v>
+        <v>82.52961504278727</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -4751,10 +4751,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>82.5296150431254</v>
+        <v>82.52961504278727</v>
       </c>
       <c r="H3" t="n">
-        <v>82.5296150431254</v>
+        <v>82.52961504278727</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -4763,97 +4763,97 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>292.2043807645117</v>
+        <v>292.2043807643392</v>
       </c>
       <c r="L3" t="n">
-        <v>132537.5531724165</v>
+        <v>132537.5531721429</v>
       </c>
       <c r="M3" t="n">
-        <v>1.580936880354626</v>
+        <v>1.580936880352297</v>
       </c>
       <c r="N3" t="n">
-        <v>334544.0459660587</v>
+        <v>334544.0459659352</v>
       </c>
       <c r="O3" t="n">
-        <v>418378.8624090065</v>
+        <v>418378.8624088334</v>
       </c>
       <c r="P3" t="n">
         <v>3782.917347718243</v>
       </c>
       <c r="Q3" t="n">
-        <v>-687006.1586643313</v>
+        <v>-687006.1586638523</v>
       </c>
       <c r="R3" t="n">
-        <v>717.7062138288431</v>
+        <v>717.7062138288353</v>
       </c>
       <c r="S3" t="n">
-        <v>1006.639892666688</v>
+        <v>1006.639892666679</v>
       </c>
       <c r="T3" t="n">
-        <v>1.402579319045368</v>
+        <v>1.402579319045371</v>
       </c>
       <c r="U3" t="n">
-        <v>0.9994969313066014</v>
+        <v>0.9994969313066002</v>
       </c>
       <c r="V3" t="n">
-        <v>342.8212838342001</v>
+        <v>342.8212838340989</v>
       </c>
       <c r="W3" t="n">
-        <v>185801.8717924709</v>
+        <v>185801.8717920875</v>
       </c>
       <c r="X3" t="n">
-        <v>5.382077103706133e-06</v>
+        <v>5.382077103717238e-06</v>
       </c>
       <c r="Y3" t="n">
-        <v>132471.5609801893</v>
+        <v>132471.5609799157</v>
       </c>
       <c r="Z3" t="n">
-        <v>7.548790039165816e-06</v>
+        <v>7.548790039181408e-06</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.003435197102768933</v>
+        <v>0.003435197102770957</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.816416388200021e-05</v>
+        <v>1.816416388199178e-05</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.02581314531334873</v>
+        <v>0.02581314531333573</v>
       </c>
       <c r="AD3" t="n">
-        <v>132537.5531724165</v>
+        <v>132537.5531721429</v>
       </c>
       <c r="AE3" t="n">
-        <v>1.580936880354626</v>
+        <v>1.580936880352297</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.580936880354626</v>
+        <v>1.580936880352297</v>
       </c>
       <c r="AG3" t="n">
-        <v>334544.0459660587</v>
+        <v>334544.0459659352</v>
       </c>
       <c r="AH3" t="n">
-        <v>418378.8624090065</v>
+        <v>418378.8624088334</v>
       </c>
       <c r="AI3" t="n">
         <v>3782.917347718243</v>
       </c>
       <c r="AJ3" t="n">
-        <v>717.7062138288431</v>
+        <v>717.7062138288353</v>
       </c>
       <c r="AK3" t="n">
-        <v>1006.639892666688</v>
+        <v>1006.639892666679</v>
       </c>
       <c r="AL3" t="n">
-        <v>342.8212838342001</v>
+        <v>342.8212838340989</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.9994969313066014</v>
+        <v>0.9994969313066002</v>
       </c>
       <c r="AN3" t="n">
-        <v>1.816416388200021e-05</v>
+        <v>1.816416388199178e-05</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.02581314531334873</v>
+        <v>0.02581314531333573</v>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
@@ -5066,16 +5066,16 @@
         <v>1</v>
       </c>
       <c r="DF3" t="n">
-        <v>0.2407365555606504</v>
+        <v>0.2407365555597351</v>
       </c>
       <c r="DG3" t="n">
-        <v>0.2407365555606504</v>
+        <v>0.2407365555597351</v>
       </c>
       <c r="DH3" t="n">
-        <v>187908.6092725158</v>
+        <v>187908.6092715565</v>
       </c>
       <c r="DI3" t="n">
-        <v>2.801075364063281</v>
+        <v>2.80107536404768</v>
       </c>
       <c r="DJ3" t="n">
         <v>421784.4310884894</v>
@@ -5129,121 +5129,121 @@
         <v>0</v>
       </c>
       <c r="DU3" t="n">
-        <v>278.0045424786518</v>
+        <v>278.0045424759178</v>
       </c>
       <c r="DV3" t="n">
-        <v>115.995857389498</v>
+        <v>115.9958573880899</v>
       </c>
       <c r="DW3" t="n">
-        <v>252.6489396519205</v>
+        <v>252.6489396495586</v>
       </c>
       <c r="DX3" t="n">
-        <v>65.3392589477846</v>
+        <v>65.33925894784522</v>
       </c>
       <c r="DY3" t="n">
-        <v>278.0045424786518</v>
+        <v>278.0045424759178</v>
       </c>
       <c r="DZ3" t="n">
-        <v>115.995857389498</v>
+        <v>115.9958573880899</v>
       </c>
       <c r="EA3" t="n">
-        <v>252.6489396519205</v>
+        <v>252.6489396495586</v>
       </c>
       <c r="EB3" t="n">
-        <v>65.3392589477846</v>
+        <v>65.33925894784522</v>
       </c>
       <c r="EC3" t="n">
-        <v>257.0374671015088</v>
+        <v>257.0374671021676</v>
       </c>
       <c r="ED3" t="n">
-        <v>82934.74269996719</v>
+        <v>82934.7427007361</v>
       </c>
       <c r="EE3" t="n">
-        <v>1.124816998464817</v>
+        <v>1.124816998472359</v>
       </c>
       <c r="EF3" t="n">
-        <v>309409.4031792781</v>
+        <v>309409.4031797487</v>
       </c>
       <c r="EG3" t="n">
-        <v>383141.1682692074</v>
+        <v>383141.1682698671</v>
       </c>
       <c r="EH3" t="n">
-        <v>3788.919886552684</v>
+        <v>3788.919886552592</v>
       </c>
       <c r="EI3" t="n">
-        <v>-590753.2024208305</v>
+        <v>-590753.2024226433</v>
       </c>
       <c r="EJ3" t="n">
-        <v>716.4704925479442</v>
+        <v>716.470492547961</v>
       </c>
       <c r="EK3" t="n">
-        <v>1005.118615028127</v>
+        <v>1005.118615028149</v>
       </c>
       <c r="EL3" t="n">
-        <v>1.402875101602132</v>
+        <v>1.40287510160213</v>
       </c>
       <c r="EM3" t="n">
-        <v>0.9993139907805415</v>
+        <v>0.9993139907805441</v>
       </c>
       <c r="EN3" t="n">
-        <v>321.5054477196956</v>
+        <v>321.5054477201082</v>
       </c>
       <c r="EO3" t="n">
-        <v>116267.5559361537</v>
+        <v>116267.5559372318</v>
       </c>
       <c r="EP3" t="n">
-        <v>8.600851647291296e-06</v>
+        <v>8.600851647211545e-06</v>
       </c>
       <c r="EQ3" t="n">
-        <v>82878.05222529937</v>
+        <v>82878.05222606799</v>
       </c>
       <c r="ER3" t="n">
-        <v>1.206592062855864e-05</v>
+        <v>1.206592062844674e-05</v>
       </c>
       <c r="ES3" t="n">
-        <v>0.003903977621408335</v>
+        <v>0.003903977621398352</v>
       </c>
       <c r="ET3" t="n">
-        <v>1.639853367021633e-05</v>
+        <v>1.639853367025028e-05</v>
       </c>
       <c r="EU3" t="n">
-        <v>0.02310880889617924</v>
+        <v>0.02310880889623093</v>
       </c>
       <c r="EV3" t="n">
-        <v>82934.74269996719</v>
+        <v>82934.7427007361</v>
       </c>
       <c r="EW3" t="n">
-        <v>1.124816998464817</v>
+        <v>1.124816998472359</v>
       </c>
       <c r="EX3" t="n">
-        <v>1.124816998464817</v>
+        <v>1.124816998472359</v>
       </c>
       <c r="EY3" t="n">
-        <v>309409.4031792781</v>
+        <v>309409.4031797487</v>
       </c>
       <c r="EZ3" t="n">
-        <v>383141.1682692074</v>
+        <v>383141.1682698671</v>
       </c>
       <c r="FA3" t="n">
-        <v>3788.919886552684</v>
+        <v>3788.919886552592</v>
       </c>
       <c r="FB3" t="n">
-        <v>716.4704925479442</v>
+        <v>716.470492547961</v>
       </c>
       <c r="FC3" t="n">
-        <v>1005.118615028127</v>
+        <v>1005.118615028149</v>
       </c>
       <c r="FD3" t="n">
-        <v>321.5054477196956</v>
+        <v>321.5054477201082</v>
       </c>
       <c r="FE3" t="n">
-        <v>0.9993139907805415</v>
+        <v>0.9993139907805441</v>
       </c>
       <c r="FF3" t="n">
-        <v>1.639853367021633e-05</v>
+        <v>1.639853367025028e-05</v>
       </c>
       <c r="FG3" t="n">
-        <v>0.02310880889617924</v>
+        <v>0.02310880889623093</v>
       </c>
       <c r="FH3" t="inlineStr">
         <is>
@@ -5254,97 +5254,97 @@
         <v>1</v>
       </c>
       <c r="FJ3" t="n">
-        <v>295.5933755788728</v>
+        <v>295.5933755788729</v>
       </c>
       <c r="FK3" t="n">
-        <v>135142.8784049972</v>
+        <v>135142.8784050406</v>
       </c>
       <c r="FL3" t="n">
-        <v>1.593477963186888</v>
+        <v>1.593477963187399</v>
       </c>
       <c r="FM3" t="n">
-        <v>336974.4233400564</v>
+        <v>336974.4233400563</v>
       </c>
       <c r="FN3" t="n">
-        <v>421784.4310885898</v>
+        <v>421784.4310885897</v>
       </c>
       <c r="FO3" t="n">
-        <v>3788.919886552384</v>
+        <v>3788.919886552293</v>
       </c>
       <c r="FP3" t="n">
-        <v>-698195.1879753494</v>
+        <v>-698195.1879753226</v>
       </c>
       <c r="FQ3" t="n">
-        <v>717.8557944799212</v>
+        <v>717.8557944799209</v>
       </c>
       <c r="FR3" t="n">
-        <v>1006.774673228984</v>
+        <v>1006.774673228985</v>
       </c>
       <c r="FS3" t="n">
-        <v>1.402474815932052</v>
+        <v>1.402474815932053</v>
       </c>
       <c r="FT3" t="n">
-        <v>0.9995307875089438</v>
+        <v>0.9995307875089435</v>
       </c>
       <c r="FU3" t="n">
-        <v>344.8024274224487</v>
+        <v>344.8024274224488</v>
       </c>
       <c r="FV3" t="n">
-        <v>189446.5457611735</v>
+        <v>189446.5457612344</v>
       </c>
       <c r="FW3" t="n">
-        <v>5.278533825898592e-06</v>
+        <v>5.278533825896896e-06</v>
       </c>
       <c r="FX3" t="n">
-        <v>135080.1765629366</v>
+        <v>135080.1765629799</v>
       </c>
       <c r="FY3" t="n">
-        <v>7.403010755868238e-06</v>
+        <v>7.403010755865862e-06</v>
       </c>
       <c r="FZ3" t="n">
-        <v>0.003395610227215361</v>
+        <v>0.003395610227215363</v>
       </c>
       <c r="GA3" t="n">
-        <v>1.832921822184816e-05</v>
+        <v>1.832921822184818e-05</v>
       </c>
       <c r="GB3" t="n">
-        <v>0.02606722400100692</v>
+        <v>0.02606722400100694</v>
       </c>
       <c r="GC3" t="n">
-        <v>135142.8784049972</v>
+        <v>135142.8784050406</v>
       </c>
       <c r="GD3" t="n">
-        <v>1.593477963186888</v>
+        <v>1.593477963187399</v>
       </c>
       <c r="GE3" t="n">
-        <v>1.593477963186888</v>
+        <v>1.593477963187399</v>
       </c>
       <c r="GF3" t="n">
-        <v>336974.4233400564</v>
+        <v>336974.4233400563</v>
       </c>
       <c r="GG3" t="n">
-        <v>421784.4310885898</v>
+        <v>421784.4310885897</v>
       </c>
       <c r="GH3" t="n">
-        <v>3788.919886552384</v>
+        <v>3788.919886552293</v>
       </c>
       <c r="GI3" t="n">
-        <v>717.8557944799212</v>
+        <v>717.8557944799209</v>
       </c>
       <c r="GJ3" t="n">
-        <v>1006.774673228984</v>
+        <v>1006.774673228985</v>
       </c>
       <c r="GK3" t="n">
-        <v>344.8024274224487</v>
+        <v>344.8024274224488</v>
       </c>
       <c r="GL3" t="n">
-        <v>0.9995307875089438</v>
+        <v>0.9995307875089435</v>
       </c>
       <c r="GM3" t="n">
-        <v>1.832921822184816e-05</v>
+        <v>1.832921822184818e-05</v>
       </c>
       <c r="GN3" t="n">
-        <v>0.02606722400100692</v>
+        <v>0.02606722400100694</v>
       </c>
       <c r="GO3" t="inlineStr">
         <is>
@@ -5355,97 +5355,97 @@
         <v>1</v>
       </c>
       <c r="GQ3" t="n">
-        <v>295.5933755788728</v>
+        <v>295.5933755788729</v>
       </c>
       <c r="GR3" t="n">
-        <v>135142.8784049972</v>
+        <v>135142.8784050406</v>
       </c>
       <c r="GS3" t="n">
-        <v>1.593477963186888</v>
+        <v>1.593477963187399</v>
       </c>
       <c r="GT3" t="n">
-        <v>336974.4233400564</v>
+        <v>336974.4233400563</v>
       </c>
       <c r="GU3" t="n">
-        <v>421784.4310885898</v>
+        <v>421784.4310885897</v>
       </c>
       <c r="GV3" t="n">
-        <v>3788.919886552384</v>
+        <v>3788.919886552293</v>
       </c>
       <c r="GW3" t="n">
-        <v>-698195.1879753494</v>
+        <v>-698195.1879753226</v>
       </c>
       <c r="GX3" t="n">
-        <v>717.8557944799212</v>
+        <v>717.8557944799209</v>
       </c>
       <c r="GY3" t="n">
-        <v>1006.774673228984</v>
+        <v>1006.774673228985</v>
       </c>
       <c r="GZ3" t="n">
-        <v>1.402474815932052</v>
+        <v>1.402474815932053</v>
       </c>
       <c r="HA3" t="n">
-        <v>0.9995307875089438</v>
+        <v>0.9995307875089435</v>
       </c>
       <c r="HB3" t="n">
-        <v>344.8024274224487</v>
+        <v>344.8024274224488</v>
       </c>
       <c r="HC3" t="n">
-        <v>189446.5457611735</v>
+        <v>189446.5457612344</v>
       </c>
       <c r="HD3" t="n">
-        <v>5.278533825898592e-06</v>
+        <v>5.278533825896896e-06</v>
       </c>
       <c r="HE3" t="n">
-        <v>135080.1765629366</v>
+        <v>135080.1765629799</v>
       </c>
       <c r="HF3" t="n">
-        <v>7.403010755868238e-06</v>
+        <v>7.403010755865862e-06</v>
       </c>
       <c r="HG3" t="n">
-        <v>0.003395610227215361</v>
+        <v>0.003395610227215363</v>
       </c>
       <c r="HH3" t="n">
-        <v>1.832921822184816e-05</v>
+        <v>1.832921822184818e-05</v>
       </c>
       <c r="HI3" t="n">
-        <v>0.02606722400100692</v>
+        <v>0.02606722400100694</v>
       </c>
       <c r="HJ3" t="n">
-        <v>135142.8784049972</v>
+        <v>135142.8784050406</v>
       </c>
       <c r="HK3" t="n">
-        <v>1.593477963186888</v>
+        <v>1.593477963187399</v>
       </c>
       <c r="HL3" t="n">
-        <v>1.593477963186888</v>
+        <v>1.593477963187399</v>
       </c>
       <c r="HM3" t="n">
-        <v>336974.4233400564</v>
+        <v>336974.4233400563</v>
       </c>
       <c r="HN3" t="n">
-        <v>421784.4310885898</v>
+        <v>421784.4310885897</v>
       </c>
       <c r="HO3" t="n">
-        <v>3788.919886552384</v>
+        <v>3788.919886552293</v>
       </c>
       <c r="HP3" t="n">
-        <v>717.8557944799212</v>
+        <v>717.8557944799209</v>
       </c>
       <c r="HQ3" t="n">
-        <v>1006.774673228984</v>
+        <v>1006.774673228985</v>
       </c>
       <c r="HR3" t="n">
-        <v>344.8024274224487</v>
+        <v>344.8024274224488</v>
       </c>
       <c r="HS3" t="n">
-        <v>0.9995307875089438</v>
+        <v>0.9995307875089435</v>
       </c>
       <c r="HT3" t="n">
-        <v>1.832921822184816e-05</v>
+        <v>1.832921822184818e-05</v>
       </c>
       <c r="HU3" t="n">
-        <v>0.02606722400100692</v>
+        <v>0.02606722400100694</v>
       </c>
       <c r="HV3" t="inlineStr">
         <is>
@@ -5456,166 +5456,166 @@
         <v>1</v>
       </c>
       <c r="HX3" t="n">
-        <v>0.8646962110608776</v>
+        <v>0.864696211051264</v>
       </c>
       <c r="HY3" t="n">
-        <v>0.8646962110608776</v>
+        <v>0.864696211051264</v>
       </c>
       <c r="HZ3" t="n">
-        <v>498845.9915323586</v>
+        <v>498845.9915297654</v>
       </c>
       <c r="IA3" t="n">
-        <v>2.801075364064594</v>
+        <v>2.801075364049375</v>
       </c>
       <c r="IB3" t="n">
         <v>421784.4310884894</v>
       </c>
       <c r="IC3" t="n">
-        <v>0.0156119256537027</v>
+        <v>0.01561192565375398</v>
       </c>
       <c r="ID3" t="n">
-        <v>-1.824277019651166e-07</v>
+        <v>-1.82427701968076e-07</v>
       </c>
       <c r="IE3" t="n">
-        <v>0.01377981236501761</v>
+        <v>0.01377981236501943</v>
       </c>
       <c r="IF3" t="n">
-        <v>0.02533404515323261</v>
+        <v>0.02533404515320879</v>
       </c>
       <c r="IG3" t="n">
         <v>0</v>
       </c>
       <c r="IH3" t="n">
-        <v>0.05472560074425097</v>
+        <v>0.05472560074428023</v>
       </c>
       <c r="II3" t="n">
-        <v>-9.105216580707065e-14</v>
+        <v>-1.870795185432428e-13</v>
       </c>
       <c r="IJ3" t="n">
         <v>0</v>
       </c>
       <c r="IK3" t="n">
-        <v>381602.8887578293</v>
+        <v>381602.8887585088</v>
       </c>
       <c r="IL3" t="n">
         <v>165.3032</v>
       </c>
       <c r="IM3" t="n">
-        <v>278.0045424786518</v>
+        <v>278.0045424759178</v>
       </c>
       <c r="IN3" t="n">
-        <v>115.995857389498</v>
+        <v>115.9958573880899</v>
       </c>
       <c r="IO3" t="n">
-        <v>252.6489396519205</v>
+        <v>252.6489396495586</v>
       </c>
       <c r="IP3" t="n">
-        <v>65.3392589477846</v>
+        <v>65.33925894784522</v>
       </c>
       <c r="IQ3" t="n">
-        <v>145.2043978909242</v>
+        <v>145.2043978883786</v>
       </c>
       <c r="IR3" t="n">
-        <v>115.995857389498</v>
+        <v>115.9958573880899</v>
       </c>
       <c r="IS3" t="n">
-        <v>87.34573965192052</v>
+        <v>87.34573964955862</v>
       </c>
       <c r="IT3" t="n">
-        <v>36.98001800602343</v>
+        <v>36.98001800561313</v>
       </c>
       <c r="IU3" t="n">
-        <v>257.0374671014042</v>
+        <v>257.0374671023626</v>
       </c>
       <c r="IV3" t="n">
-        <v>82934.74269826284</v>
+        <v>82934.74269928983</v>
       </c>
       <c r="IW3" t="n">
-        <v>1.124816998442145</v>
+        <v>1.124816998451874</v>
       </c>
       <c r="IX3" t="n">
-        <v>309409.4031792072</v>
+        <v>309409.4031798922</v>
       </c>
       <c r="IY3" t="n">
-        <v>383141.1682691074</v>
+        <v>383141.1682700677</v>
       </c>
       <c r="IZ3" t="n">
-        <v>3788.91988655819</v>
+        <v>3788.919886558375</v>
       </c>
       <c r="JA3" t="n">
-        <v>-590753.2024219494</v>
+        <v>-590753.2024246681</v>
       </c>
       <c r="JB3" t="n">
-        <v>716.4704925479356</v>
+        <v>716.4704925479601</v>
       </c>
       <c r="JC3" t="n">
-        <v>1005.118615028087</v>
+        <v>1005.118615028117</v>
       </c>
       <c r="JD3" t="n">
-        <v>1.402875101602093</v>
+        <v>1.402875101602087</v>
       </c>
       <c r="JE3" t="n">
-        <v>0.9993139907805541</v>
+        <v>0.9993139907805586</v>
       </c>
       <c r="JF3" t="n">
-        <v>321.5054477196298</v>
+        <v>321.50544772023</v>
       </c>
       <c r="JG3" t="n">
-        <v>116267.5559337626</v>
+        <v>116267.5559352023</v>
       </c>
       <c r="JH3" t="n">
-        <v>8.600851647468173e-06</v>
+        <v>8.600851647361669e-06</v>
       </c>
       <c r="JI3" t="n">
-        <v>82878.05222359726</v>
+        <v>82878.0522246239</v>
       </c>
       <c r="JJ3" t="n">
-        <v>1.206592062880644e-05</v>
+        <v>1.206592062865698e-05</v>
       </c>
       <c r="JK3" t="n">
-        <v>0.003903977621409661</v>
+        <v>0.003903977621395126</v>
       </c>
       <c r="JL3" t="n">
-        <v>1.63985336702107e-05</v>
+        <v>1.639853367026006e-05</v>
       </c>
       <c r="JM3" t="n">
-        <v>0.02310880889617044</v>
+        <v>0.02310880889624561</v>
       </c>
       <c r="JN3" t="n">
-        <v>82934.74269826284</v>
+        <v>82934.74269928983</v>
       </c>
       <c r="JO3" t="n">
-        <v>1.124816998442145</v>
+        <v>1.124816998451874</v>
       </c>
       <c r="JP3" t="n">
-        <v>1.124816998442145</v>
+        <v>1.124816998451874</v>
       </c>
       <c r="JQ3" t="n">
-        <v>309409.4031792072</v>
+        <v>309409.4031798922</v>
       </c>
       <c r="JR3" t="n">
-        <v>383141.1682691074</v>
+        <v>383141.1682700677</v>
       </c>
       <c r="JS3" t="n">
-        <v>3788.91988655819</v>
+        <v>3788.919886558375</v>
       </c>
       <c r="JT3" t="n">
-        <v>716.4704925479356</v>
+        <v>716.4704925479601</v>
       </c>
       <c r="JU3" t="n">
-        <v>1005.118615028087</v>
+        <v>1005.118615028117</v>
       </c>
       <c r="JV3" t="n">
-        <v>321.5054477196298</v>
+        <v>321.50544772023</v>
       </c>
       <c r="JW3" t="n">
-        <v>0.9993139907805541</v>
+        <v>0.9993139907805586</v>
       </c>
       <c r="JX3" t="n">
-        <v>1.63985336702107e-05</v>
+        <v>1.639853367026006e-05</v>
       </c>
       <c r="JY3" t="n">
-        <v>0.02310880889617044</v>
+        <v>0.02310880889624561</v>
       </c>
       <c r="JZ3" t="inlineStr">
         <is>
@@ -5626,97 +5626,97 @@
         <v>1</v>
       </c>
       <c r="KB3" t="n">
-        <v>295.5933755787668</v>
+        <v>295.5933755787665</v>
       </c>
       <c r="KC3" t="n">
-        <v>135142.8784022439</v>
+        <v>135142.8784021566</v>
       </c>
       <c r="KD3" t="n">
-        <v>1.593477963154983</v>
+        <v>1.593477963153954</v>
       </c>
       <c r="KE3" t="n">
-        <v>336974.4233399855</v>
+        <v>336974.4233399856</v>
       </c>
       <c r="KF3" t="n">
         <v>421784.4310884892</v>
       </c>
       <c r="KG3" t="n">
-        <v>3788.91988655789</v>
+        <v>3788.919886558076</v>
       </c>
       <c r="KH3" t="n">
-        <v>-698195.1879766755</v>
+        <v>-698195.1879767292</v>
       </c>
       <c r="KI3" t="n">
-        <v>717.8557944799095</v>
+        <v>717.8557944799094</v>
       </c>
       <c r="KJ3" t="n">
-        <v>1006.774673228936</v>
+        <v>1006.774673228935</v>
       </c>
       <c r="KK3" t="n">
-        <v>1.402474815932008</v>
+        <v>1.402474815932006</v>
       </c>
       <c r="KL3" t="n">
-        <v>0.9995307875089519</v>
+        <v>0.9995307875089521</v>
       </c>
       <c r="KM3" t="n">
-        <v>344.8024274223841</v>
+        <v>344.8024274223839</v>
       </c>
       <c r="KN3" t="n">
-        <v>189446.5457573094</v>
+        <v>189446.5457571868</v>
       </c>
       <c r="KO3" t="n">
-        <v>5.278533826006258e-06</v>
+        <v>5.278533826009674e-06</v>
       </c>
       <c r="KP3" t="n">
-        <v>135080.1765601856</v>
+        <v>135080.1765600984</v>
       </c>
       <c r="KQ3" t="n">
-        <v>7.403010756019001e-06</v>
+        <v>7.403010756023784e-06</v>
       </c>
       <c r="KR3" t="n">
-        <v>0.003395610227216336</v>
+        <v>0.003395610227216332</v>
       </c>
       <c r="KS3" t="n">
-        <v>1.832921822184263e-05</v>
+        <v>1.83292182218426e-05</v>
       </c>
       <c r="KT3" t="n">
-        <v>0.02606722400099813</v>
+        <v>0.02606722400099809</v>
       </c>
       <c r="KU3" t="n">
-        <v>135142.8784022439</v>
+        <v>135142.8784021566</v>
       </c>
       <c r="KV3" t="n">
-        <v>1.593477963154983</v>
+        <v>1.593477963153954</v>
       </c>
       <c r="KW3" t="n">
-        <v>1.593477963154983</v>
+        <v>1.593477963153954</v>
       </c>
       <c r="KX3" t="n">
-        <v>336974.4233399855</v>
+        <v>336974.4233399856</v>
       </c>
       <c r="KY3" t="n">
         <v>421784.4310884892</v>
       </c>
       <c r="KZ3" t="n">
-        <v>3788.91988655789</v>
+        <v>3788.919886558076</v>
       </c>
       <c r="LA3" t="n">
-        <v>717.8557944799095</v>
+        <v>717.8557944799094</v>
       </c>
       <c r="LB3" t="n">
-        <v>1006.774673228936</v>
+        <v>1006.774673228935</v>
       </c>
       <c r="LC3" t="n">
-        <v>344.8024274223841</v>
+        <v>344.8024274223839</v>
       </c>
       <c r="LD3" t="n">
-        <v>0.9995307875089519</v>
+        <v>0.9995307875089521</v>
       </c>
       <c r="LE3" t="n">
-        <v>1.832921822184263e-05</v>
+        <v>1.83292182218426e-05</v>
       </c>
       <c r="LF3" t="n">
-        <v>0.02606722400099813</v>
+        <v>0.02606722400099809</v>
       </c>
       <c r="LG3" t="inlineStr">
         <is>
@@ -5727,97 +5727,97 @@
         <v>1</v>
       </c>
       <c r="LI3" t="n">
-        <v>267.5608469988129</v>
+        <v>267.5608469994022</v>
       </c>
       <c r="LJ3" t="n">
-        <v>95409.78892392466</v>
+        <v>95409.78892459677</v>
       </c>
       <c r="LK3" t="n">
-        <v>1.243057550895923</v>
+        <v>1.243057550901938</v>
       </c>
       <c r="LL3" t="n">
-        <v>316929.206453884</v>
+        <v>316929.2064543053</v>
       </c>
       <c r="LM3" t="n">
-        <v>393683.3268525404</v>
+        <v>393683.3268531309</v>
       </c>
       <c r="LN3" t="n">
-        <v>3788.919886559388</v>
+        <v>3788.919886559574</v>
       </c>
       <c r="LO3" t="n">
-        <v>-620083.2872059357</v>
+        <v>-620083.2872076274</v>
       </c>
       <c r="LP3" t="n">
-        <v>716.7674741389611</v>
+        <v>716.7674741389791</v>
       </c>
       <c r="LQ3" t="n">
-        <v>1005.488635078805</v>
+        <v>1005.488635078826</v>
       </c>
       <c r="LR3" t="n">
-        <v>1.402810076289634</v>
+        <v>1.402810076289629</v>
       </c>
       <c r="LS3" t="n">
-        <v>0.9993621730097714</v>
+        <v>0.9993621730097748</v>
       </c>
       <c r="LT3" t="n">
-        <v>328.029130325959</v>
+        <v>328.0291303263207</v>
       </c>
       <c r="LU3" t="n">
-        <v>133756.8588110137</v>
+        <v>133756.8588119559</v>
       </c>
       <c r="LV3" t="n">
-        <v>7.476252125604333e-06</v>
+        <v>7.476252125551671e-06</v>
       </c>
       <c r="LW3" t="n">
-        <v>95349.22871725747</v>
+        <v>95349.22871792947</v>
       </c>
       <c r="LX3" t="n">
-        <v>1.048776181467955e-05</v>
+        <v>1.048776181460564e-05</v>
       </c>
       <c r="LY3" t="n">
-        <v>0.003750723525134725</v>
+        <v>0.003750723525126473</v>
       </c>
       <c r="LZ3" t="n">
-        <v>1.693635799613411e-05</v>
+        <v>1.693635799616399e-05</v>
       </c>
       <c r="MA3" t="n">
-        <v>0.02392923167044821</v>
+        <v>0.02392923167049385</v>
       </c>
       <c r="MB3" t="n">
-        <v>95409.78892392466</v>
+        <v>95409.78892459677</v>
       </c>
       <c r="MC3" t="n">
-        <v>1.243057550895923</v>
+        <v>1.243057550901938</v>
       </c>
       <c r="MD3" t="n">
-        <v>1.243057550895923</v>
+        <v>1.243057550901938</v>
       </c>
       <c r="ME3" t="n">
-        <v>316929.206453884</v>
+        <v>316929.2064543053</v>
       </c>
       <c r="MF3" t="n">
-        <v>393683.3268525404</v>
+        <v>393683.3268531309</v>
       </c>
       <c r="MG3" t="n">
-        <v>3788.919886559388</v>
+        <v>3788.919886559574</v>
       </c>
       <c r="MH3" t="n">
-        <v>716.7674741389611</v>
+        <v>716.7674741389791</v>
       </c>
       <c r="MI3" t="n">
-        <v>1005.488635078805</v>
+        <v>1005.488635078826</v>
       </c>
       <c r="MJ3" t="n">
-        <v>328.029130325959</v>
+        <v>328.0291303263207</v>
       </c>
       <c r="MK3" t="n">
-        <v>0.9993621730097714</v>
+        <v>0.9993621730097748</v>
       </c>
       <c r="ML3" t="n">
-        <v>1.693635799613411e-05</v>
+        <v>1.693635799616399e-05</v>
       </c>
       <c r="MM3" t="n">
-        <v>0.02392923167044821</v>
+        <v>0.02392923167049385</v>
       </c>
       <c r="MN3" t="inlineStr">
         <is>
@@ -5828,139 +5828,139 @@
         <v>1</v>
       </c>
       <c r="MP3" t="n">
-        <v>0.8646962110610544</v>
+        <v>0.8646962110509365</v>
       </c>
       <c r="MQ3" t="n">
-        <v>0.4516389968531739</v>
+        <v>0.4516389968444132</v>
       </c>
       <c r="MR3" t="n">
-        <v>259555.9784796333</v>
+        <v>259555.9784765469</v>
       </c>
       <c r="MS3" t="n">
-        <v>2.801075364008136</v>
+        <v>2.801075363998363</v>
       </c>
       <c r="MT3" t="n">
-        <v>380020.7528875204</v>
+        <v>380020.7528879108</v>
       </c>
       <c r="MU3" t="n">
         <v>165.3032</v>
       </c>
       <c r="MV3" t="n">
-        <v>142.2541798771233</v>
+        <v>142.2541798740417</v>
       </c>
       <c r="MW3" t="n">
-        <v>129.9830867720029</v>
+        <v>129.9830867725873</v>
       </c>
       <c r="MX3" t="n">
-        <v>-57.79834639273781</v>
+        <v>-57.79834638383934</v>
       </c>
       <c r="MY3" t="n">
-        <v>-23.97282605814604</v>
+        <v>-23.97282605477555</v>
       </c>
       <c r="MZ3" t="n">
-        <v>258.205156512431</v>
+        <v>258.2051565050365</v>
       </c>
       <c r="NA3" t="n">
-        <v>129.9830867720029</v>
+        <v>129.9830867725873</v>
       </c>
       <c r="NB3" t="n">
-        <v>-223.1015463927378</v>
+        <v>-223.1015463838393</v>
       </c>
       <c r="NC3" t="n">
-        <v>-59.77413117891427</v>
+        <v>-59.7741311778082</v>
       </c>
       <c r="ND3" t="n">
-        <v>234.2675760751565</v>
+        <v>234.2675760774462</v>
       </c>
       <c r="NE3" t="n">
-        <v>57500.0000019689</v>
+        <v>57500.00000204863</v>
       </c>
       <c r="NF3" t="n">
-        <v>0.8556917874556994</v>
+        <v>0.8556917874484971</v>
       </c>
       <c r="NG3" t="n">
-        <v>293151.283151353</v>
+        <v>293151.2831529939</v>
       </c>
       <c r="NH3" t="n">
-        <v>360348.375427929</v>
+        <v>360348.3754302287</v>
       </c>
       <c r="NI3" t="n">
-        <v>3801.131194287334</v>
+        <v>3801.131194296753</v>
       </c>
       <c r="NJ3" t="n">
-        <v>-530133.4158014294</v>
+        <v>-530133.4158100398</v>
       </c>
       <c r="NK3" t="n">
-        <v>715.9885931999626</v>
+        <v>715.9885931999905</v>
       </c>
       <c r="NL3" t="n">
-        <v>1004.421377282737</v>
+        <v>1004.421377282734</v>
       </c>
       <c r="NM3" t="n">
-        <v>1.402845501760976</v>
+        <v>1.402845501760917</v>
       </c>
       <c r="NN3" t="n">
-        <v>0.9992681996164402</v>
+        <v>0.9992681996164698</v>
       </c>
       <c r="NO3" t="n">
-        <v>306.9173694662095</v>
+        <v>306.9173694677122</v>
       </c>
       <c r="NP3" t="n">
-        <v>80604.68746914623</v>
+        <v>80604.68746925706</v>
       </c>
       <c r="NQ3" t="n">
-        <v>1.240622637961073e-05</v>
+        <v>1.240622637959367e-05</v>
       </c>
       <c r="NR3" t="n">
-        <v>57457.99331998007</v>
+        <v>57457.99332006145</v>
       </c>
       <c r="NS3" t="n">
-        <v>1.740401887046526e-05</v>
+        <v>1.740401887044061e-05</v>
       </c>
       <c r="NT3" t="n">
-        <v>0.004282029684714596</v>
+        <v>0.004282029684672388</v>
       </c>
       <c r="NU3" t="n">
-        <v>1.520413469667289e-05</v>
+        <v>1.520413469679481e-05</v>
       </c>
       <c r="NV3" t="n">
-        <v>0.02129651313160874</v>
+        <v>0.02129651313179267</v>
       </c>
       <c r="NW3" t="n">
-        <v>57500.0000019689</v>
+        <v>57500.00000204863</v>
       </c>
       <c r="NX3" t="n">
-        <v>0.8556917874556994</v>
+        <v>0.8556917874484971</v>
       </c>
       <c r="NY3" t="n">
-        <v>0.8556917874556994</v>
+        <v>0.8556917874484971</v>
       </c>
       <c r="NZ3" t="n">
-        <v>293151.283151353</v>
+        <v>293151.2831529939</v>
       </c>
       <c r="OA3" t="n">
-        <v>360348.375427929</v>
+        <v>360348.3754302287</v>
       </c>
       <c r="OB3" t="n">
-        <v>3801.131194287334</v>
+        <v>3801.131194296753</v>
       </c>
       <c r="OC3" t="n">
-        <v>715.9885931999626</v>
+        <v>715.9885931999905</v>
       </c>
       <c r="OD3" t="n">
-        <v>1004.421377282737</v>
+        <v>1004.421377282734</v>
       </c>
       <c r="OE3" t="n">
-        <v>306.9173694662095</v>
+        <v>306.9173694677122</v>
       </c>
       <c r="OF3" t="n">
-        <v>0.9992681996164402</v>
+        <v>0.9992681996164698</v>
       </c>
       <c r="OG3" t="n">
-        <v>1.520413469667289e-05</v>
+        <v>1.520413469679481e-05</v>
       </c>
       <c r="OH3" t="n">
-        <v>0.02129651313160874</v>
+        <v>0.02129651313179267</v>
       </c>
       <c r="OI3" t="inlineStr">
         <is>
@@ -5971,97 +5971,97 @@
         <v>1</v>
       </c>
       <c r="OK3" t="n">
-        <v>244.3720243347904</v>
+        <v>244.3720243366492</v>
       </c>
       <c r="OL3" t="n">
-        <v>66632.99544727143</v>
+        <v>66632.99544911367</v>
       </c>
       <c r="OM3" t="n">
-        <v>0.9505765335259383</v>
+        <v>0.9505765335449837</v>
       </c>
       <c r="ON3" t="n">
-        <v>300369.0466272615</v>
+        <v>300369.0466285891</v>
       </c>
       <c r="OO3" t="n">
-        <v>370466.5012741925</v>
+        <v>370466.5012760537</v>
       </c>
       <c r="OP3" t="n">
-        <v>3801.131194305744</v>
+        <v>3801.13119430543</v>
       </c>
       <c r="OQ3" t="n">
-        <v>-558423.6234404215</v>
+        <v>-558423.6234455494</v>
       </c>
       <c r="OR3" t="n">
-        <v>716.170176379929</v>
+        <v>716.1701763799665</v>
       </c>
       <c r="OS3" t="n">
-        <v>1004.668498245099</v>
+        <v>1004.66849824515</v>
       </c>
       <c r="OT3" t="n">
-        <v>1.402834872744158</v>
+        <v>1.402834872744156</v>
       </c>
       <c r="OU3" t="n">
-        <v>0.9992968807356074</v>
+        <v>0.9992968807356125</v>
       </c>
       <c r="OV3" t="n">
-        <v>313.4743613856489</v>
+        <v>313.4743613868426</v>
       </c>
       <c r="OW3" t="n">
-        <v>93409.52022832853</v>
+        <v>93409.52023091142</v>
       </c>
       <c r="OX3" t="n">
-        <v>1.07055469030953e-05</v>
+        <v>1.070554690279927e-05</v>
       </c>
       <c r="OY3" t="n">
-        <v>66586.25476397327</v>
+        <v>66586.25476581455</v>
       </c>
       <c r="OZ3" t="n">
-        <v>1.501811452746031e-05</v>
+        <v>1.501811452704502e-05</v>
       </c>
       <c r="PA3" t="n">
-        <v>0.004105321302564994</v>
+        <v>0.004105321302533844</v>
       </c>
       <c r="PB3" t="n">
-        <v>1.573920277610401e-05</v>
+        <v>1.573920277620167e-05</v>
       </c>
       <c r="PC3" t="n">
-        <v>0.02210645759382439</v>
+        <v>0.02210645759397249</v>
       </c>
       <c r="PD3" t="n">
-        <v>66632.99544727143</v>
+        <v>66632.99544911367</v>
       </c>
       <c r="PE3" t="n">
-        <v>0.9505765335259383</v>
+        <v>0.9505765335449837</v>
       </c>
       <c r="PF3" t="n">
-        <v>0.9505765335259383</v>
+        <v>0.9505765335449837</v>
       </c>
       <c r="PG3" t="n">
-        <v>300369.0466272615</v>
+        <v>300369.0466285891</v>
       </c>
       <c r="PH3" t="n">
-        <v>370466.5012741925</v>
+        <v>370466.5012760537</v>
       </c>
       <c r="PI3" t="n">
-        <v>3801.131194305744</v>
+        <v>3801.13119430543</v>
       </c>
       <c r="PJ3" t="n">
-        <v>716.170176379929</v>
+        <v>716.1701763799665</v>
       </c>
       <c r="PK3" t="n">
-        <v>1004.668498245099</v>
+        <v>1004.66849824515</v>
       </c>
       <c r="PL3" t="n">
-        <v>313.4743613856489</v>
+        <v>313.4743613868426</v>
       </c>
       <c r="PM3" t="n">
-        <v>0.9992968807356074</v>
+        <v>0.9992968807356125</v>
       </c>
       <c r="PN3" t="n">
-        <v>1.573920277610401e-05</v>
+        <v>1.573920277620167e-05</v>
       </c>
       <c r="PO3" t="n">
-        <v>0.02210645759382439</v>
+        <v>0.02210645759397249</v>
       </c>
       <c r="PP3" t="inlineStr">
         <is>
@@ -6072,97 +6072,97 @@
         <v>1</v>
       </c>
       <c r="PR3" t="n">
-        <v>267.5495628184036</v>
+        <v>267.5495628187934</v>
       </c>
       <c r="PS3" t="n">
-        <v>91433.66777560874</v>
+        <v>91433.667776174</v>
       </c>
       <c r="PT3" t="n">
-        <v>1.191273068301417</v>
+        <v>1.191273068307045</v>
       </c>
       <c r="PU3" t="n">
-        <v>316930.4225784766</v>
+        <v>316930.422578755</v>
       </c>
       <c r="PV3" t="n">
-        <v>393683.3268525402</v>
+        <v>393683.3268529306</v>
       </c>
       <c r="PW3" t="n">
-        <v>3801.131194297067</v>
+        <v>3801.131194296753</v>
       </c>
       <c r="PX3" t="n">
-        <v>-623307.6623970366</v>
+        <v>-623307.662398044</v>
       </c>
       <c r="PY3" t="n">
-        <v>716.7542328845749</v>
+        <v>716.7542328845873</v>
       </c>
       <c r="PZ3" t="n">
-        <v>1005.405768332066</v>
+        <v>1005.405768332083</v>
       </c>
       <c r="QA3" t="n">
-        <v>1.402720377786698</v>
+        <v>1.402720377786697</v>
       </c>
       <c r="QB3" t="n">
-        <v>0.9993884871635382</v>
+        <v>0.9993884871635395</v>
       </c>
       <c r="QC3" t="n">
-        <v>328.0203213059995</v>
+        <v>328.0203213062388</v>
       </c>
       <c r="QD3" t="n">
-        <v>128177.8028673872</v>
+        <v>128177.8028681797</v>
       </c>
       <c r="QE3" t="n">
-        <v>7.801662827959383e-06</v>
+        <v>7.801662827911144e-06</v>
       </c>
       <c r="QF3" t="n">
-        <v>91378.01439060459</v>
+        <v>91378.01439116959</v>
       </c>
       <c r="QG3" t="n">
-        <v>1.094355142939962e-05</v>
+        <v>1.094355142933196e-05</v>
       </c>
       <c r="QH3" t="n">
-        <v>0.003750331145271517</v>
+        <v>0.003750331145266076</v>
       </c>
       <c r="QI3" t="n">
-        <v>1.69351820772333e-05</v>
+        <v>1.693518207725308e-05</v>
       </c>
       <c r="QJ3" t="n">
-        <v>0.02392694597247964</v>
+        <v>0.02392694597250988</v>
       </c>
       <c r="QK3" t="n">
-        <v>91433.66777560874</v>
+        <v>91433.667776174</v>
       </c>
       <c r="QL3" t="n">
-        <v>1.191273068301417</v>
+        <v>1.191273068307045</v>
       </c>
       <c r="QM3" t="n">
-        <v>1.191273068301417</v>
+        <v>1.191273068307045</v>
       </c>
       <c r="QN3" t="n">
-        <v>316930.4225784766</v>
+        <v>316930.422578755</v>
       </c>
       <c r="QO3" t="n">
-        <v>393683.3268525402</v>
+        <v>393683.3268529306</v>
       </c>
       <c r="QP3" t="n">
-        <v>3801.131194297067</v>
+        <v>3801.131194296753</v>
       </c>
       <c r="QQ3" t="n">
-        <v>716.7542328845749</v>
+        <v>716.7542328845873</v>
       </c>
       <c r="QR3" t="n">
-        <v>1005.405768332066</v>
+        <v>1005.405768332083</v>
       </c>
       <c r="QS3" t="n">
-        <v>328.0203213059995</v>
+        <v>328.0203213062388</v>
       </c>
       <c r="QT3" t="n">
-        <v>0.9993884871635382</v>
+        <v>0.9993884871635395</v>
       </c>
       <c r="QU3" t="n">
-        <v>1.69351820772333e-05</v>
+        <v>1.693518207725308e-05</v>
       </c>
       <c r="QV3" t="n">
-        <v>0.02392694597247964</v>
+        <v>0.02392694597250988</v>
       </c>
       <c r="QW3" t="inlineStr">
         <is>
@@ -6173,46 +6173,46 @@
         <v>1</v>
       </c>
       <c r="QY3" t="n">
-        <v>0.4634934155878231</v>
+        <v>0.4634934155755134</v>
       </c>
       <c r="QZ3" t="n">
-        <v>0.8412855778136676</v>
+        <v>0.8412855777854559</v>
       </c>
       <c r="RA3" t="n">
-        <v>378699.7146730605</v>
+        <v>378699.7146559909</v>
       </c>
       <c r="RB3" t="n">
-        <v>2.801075364102432</v>
+        <v>2.801075364091447</v>
       </c>
       <c r="RC3" t="n">
-        <v>380020.7528875204</v>
+        <v>380020.7528879108</v>
       </c>
       <c r="RD3" t="n">
-        <v>0.02693962188699939</v>
+        <v>0.02693962188557554</v>
       </c>
       <c r="RE3" t="n">
-        <v>0.002766125130286845</v>
+        <v>0.002766125129917359</v>
       </c>
       <c r="RF3" t="n">
-        <v>0.01174717696696274</v>
+        <v>0.01174717696689671</v>
       </c>
       <c r="RG3" t="n">
-        <v>0.03296430785396036</v>
+        <v>0.03296430785428122</v>
       </c>
       <c r="RH3" t="n">
-        <v>0.04275610682211924</v>
+        <v>0.04275610682138322</v>
       </c>
       <c r="RI3" t="n">
-        <v>0.1171733386603286</v>
+        <v>0.117173338658054</v>
       </c>
       <c r="RJ3" t="n">
-        <v>1.348099409881343e-11</v>
+        <v>1.35605138229522e-11</v>
       </c>
       <c r="RK3" t="n">
         <v>0</v>
       </c>
       <c r="RL3" t="n">
-        <v>357504.9813034046</v>
+        <v>357504.9813035396</v>
       </c>
     </row>
   </sheetData>
@@ -7556,145 +7556,145 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01561897651507948</v>
+        <v>0.01561897652502163</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.808493700480447e-07</v>
+        <v>-1.808493700769923e-07</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01378013287977033</v>
+        <v>0.01378013288008288</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02533043296426881</v>
+        <v>0.02533043296011035</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.05472936150974857</v>
+        <v>0.05472936151584479</v>
       </c>
       <c r="H2" t="n">
-        <v>-1.414317829517842e-10</v>
+        <v>2.696580667094217e-10</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>274.1678062755173</v>
+        <v>274.167806209631</v>
       </c>
       <c r="K2" t="n">
-        <v>112.0265245670586</v>
+        <v>112.0265245401371</v>
       </c>
       <c r="L2" t="n">
-        <v>250.2359762131652</v>
+        <v>250.23597615303</v>
       </c>
       <c r="M2" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="N2" t="n">
-        <v>274.1678062755173</v>
+        <v>274.167806209631</v>
       </c>
       <c r="O2" t="n">
-        <v>112.0265245670586</v>
+        <v>112.0265245401371</v>
       </c>
       <c r="P2" t="n">
-        <v>250.2359762131652</v>
+        <v>250.23597615303</v>
       </c>
       <c r="Q2" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="R2" t="n">
-        <v>258.1003988360173</v>
+        <v>258.1003988542452</v>
       </c>
       <c r="S2" t="n">
-        <v>85911.41386597459</v>
+        <v>85911.41388716116</v>
       </c>
       <c r="T2" t="n">
-        <v>1.160401423887841</v>
+        <v>1.160401424091963</v>
       </c>
       <c r="U2" t="n">
-        <v>310164.4949257844</v>
+        <v>310164.4949388076</v>
       </c>
       <c r="V2" t="n">
-        <v>384200.4380894309</v>
+        <v>384200.4381076886</v>
       </c>
       <c r="W2" t="n">
         <v>3782.917347718243</v>
       </c>
       <c r="X2" t="n">
-        <v>-592172.0381203362</v>
+        <v>-592172.0381710328</v>
       </c>
       <c r="Y2" t="n">
-        <v>716.5043828471453</v>
+        <v>716.5043828476222</v>
       </c>
       <c r="Z2" t="n">
-        <v>1005.193756830957</v>
+        <v>1005.193756831563</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.402913619085844</v>
+        <v>1.402913619085755</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.9993041882928692</v>
+        <v>0.9993041882929488</v>
       </c>
       <c r="AC2" t="n">
-        <v>322.1708149383076</v>
+        <v>322.1708149496995</v>
       </c>
       <c r="AD2" t="n">
-        <v>120442.7448423575</v>
+        <v>120442.7448720619</v>
       </c>
       <c r="AE2" t="n">
-        <v>8.302700185958551e-06</v>
+        <v>8.302700183910881e-06</v>
       </c>
       <c r="AF2" t="n">
-        <v>85851.86087283089</v>
+        <v>85851.8608940097</v>
       </c>
       <c r="AG2" t="n">
-        <v>1.164797116606782e-05</v>
+        <v>1.164797116319438e-05</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.003888215538627818</v>
+        <v>0.003888215538353773</v>
       </c>
       <c r="AI2" t="n">
-        <v>1.645352168390005e-05</v>
+        <v>1.64535216848376e-05</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.02319279784430018</v>
+        <v>0.02319279784572842</v>
       </c>
       <c r="AK2" t="n">
-        <v>85911.41386597459</v>
+        <v>85911.41388716116</v>
       </c>
       <c r="AL2" t="n">
-        <v>1.160401423887841</v>
+        <v>1.160401424091963</v>
       </c>
       <c r="AM2" t="n">
-        <v>1.160401423887841</v>
+        <v>1.160401424091963</v>
       </c>
       <c r="AN2" t="n">
-        <v>310164.4949257844</v>
+        <v>310164.4949388076</v>
       </c>
       <c r="AO2" t="n">
-        <v>384200.4380894309</v>
+        <v>384200.4381076886</v>
       </c>
       <c r="AP2" t="n">
         <v>3782.917347718243</v>
       </c>
       <c r="AQ2" t="n">
-        <v>716.5043828471453</v>
+        <v>716.5043828476222</v>
       </c>
       <c r="AR2" t="n">
-        <v>1005.193756830957</v>
+        <v>1005.193756831563</v>
       </c>
       <c r="AS2" t="n">
-        <v>322.1708149383076</v>
+        <v>322.1708149496995</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.9993041882928692</v>
+        <v>0.9993041882929488</v>
       </c>
       <c r="AU2" t="n">
-        <v>1.645352168390005e-05</v>
+        <v>1.64535216848376e-05</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.02319279784430018</v>
+        <v>0.02319279784572842</v>
       </c>
       <c r="AW2" t="inlineStr">
         <is>
@@ -7907,37 +7907,37 @@
         <v>1</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.01607522977131295</v>
+        <v>0.01607522977244424</v>
       </c>
       <c r="DN2" t="n">
-        <v>-1.810779379113575e-07</v>
+        <v>-1.810779379841637e-07</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.01379738282249673</v>
+        <v>0.01379738282248526</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.02509842428952098</v>
+        <v>0.02509842428979596</v>
       </c>
       <c r="DQ2" t="n">
         <v>0</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.05497085580539275</v>
+        <v>0.05497085580678747</v>
       </c>
       <c r="DS2" t="n">
-        <v>-0.05497085580539275</v>
+        <v>-0.05497085580678747</v>
       </c>
       <c r="DT2" t="n">
-        <v>0.8510013743113809</v>
+        <v>0.8510013740767819</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.8510013743113809</v>
+        <v>0.8510013740767819</v>
       </c>
       <c r="DV2" t="n">
-        <v>505828.8338741392</v>
+        <v>505828.8338127373</v>
       </c>
       <c r="DW2" t="n">
-        <v>2.790805431843034</v>
+        <v>2.790805431663286</v>
       </c>
       <c r="DX2" t="n">
         <v>421784.4310884894</v>
@@ -7946,154 +7946,154 @@
         <v>0</v>
       </c>
       <c r="DZ2" t="n">
-        <v>384200.4380894308</v>
+        <v>384200.4381076886</v>
       </c>
       <c r="EA2" t="n">
-        <v>1509.720680772443</v>
+        <v>1509.720692144125</v>
       </c>
       <c r="EB2" t="n">
         <v>0</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.02607389603413926</v>
+        <v>0.02607389602117786</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.002221780596028547</v>
+        <v>0.002221780604087382</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.01178846742576353</v>
+        <v>0.01178846742615484</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.03262518113139132</v>
+        <v>0.03262518113133096</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.04229027499091735</v>
+        <v>0.04229027500535012</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.11499960017824</v>
+        <v>0.1149996001881012</v>
       </c>
       <c r="EI2" t="n">
-        <v>1.361971646574034e-11</v>
+        <v>-3.783004465240936e-11</v>
       </c>
       <c r="EJ2" t="n">
         <v>165.3032</v>
       </c>
       <c r="EK2" t="n">
-        <v>132.0703461857413</v>
+        <v>132.0703461416426</v>
       </c>
       <c r="EL2" t="n">
-        <v>120.6414701013993</v>
+        <v>120.6414700747101</v>
       </c>
       <c r="EM2" t="n">
-        <v>-53.74208810043311</v>
+        <v>-53.74208805197412</v>
       </c>
       <c r="EN2" t="n">
-        <v>-24.0115111434534</v>
+        <v>-24.01151112896133</v>
       </c>
       <c r="EO2" t="n">
-        <v>250.0703951834934</v>
+        <v>250.0703951281708</v>
       </c>
       <c r="EP2" t="n">
-        <v>120.6414701013993</v>
+        <v>120.6414700747101</v>
       </c>
       <c r="EQ2" t="n">
-        <v>-219.0452881004331</v>
+        <v>-219.0452880519741</v>
       </c>
       <c r="ER2" t="n">
         <v>-61.15576777799674</v>
       </c>
       <c r="ES2" t="n">
-        <v>236.9136066823851</v>
+        <v>236.9136066963792</v>
       </c>
       <c r="ET2" t="n">
-        <v>62420.87548286574</v>
+        <v>62420.87548597281</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.9185702062662034</v>
+        <v>0.9185702062575231</v>
       </c>
       <c r="EV2" t="n">
-        <v>295034.0214263615</v>
+        <v>295034.0214363837</v>
       </c>
       <c r="EW2" t="n">
-        <v>362988.4086436364</v>
+        <v>362988.4086576834</v>
       </c>
       <c r="EX2" t="n">
-        <v>3788.783891564113</v>
+        <v>3788.783891609127</v>
       </c>
       <c r="EY2" t="n">
-        <v>-534626.0480469402</v>
+        <v>-534626.0480965787</v>
       </c>
       <c r="EZ2" t="n">
-        <v>716.0444568078876</v>
+        <v>716.0444568080811</v>
       </c>
       <c r="FA2" t="n">
-        <v>1004.555855530282</v>
+        <v>1004.555855530341</v>
       </c>
       <c r="FB2" t="n">
-        <v>1.40292386314751</v>
+        <v>1.402923863147213</v>
       </c>
       <c r="FC2" t="n">
-        <v>0.9992433487767032</v>
+        <v>0.9992433487768605</v>
       </c>
       <c r="FD2" t="n">
-        <v>308.6467825558676</v>
+        <v>308.6467825649992</v>
       </c>
       <c r="FE2" t="n">
-        <v>87505.60326499908</v>
+        <v>87505.60326935003</v>
       </c>
       <c r="FF2" t="n">
-        <v>1.142783962041417e-05</v>
+        <v>1.142783961984596e-05</v>
       </c>
       <c r="FG2" t="n">
-        <v>62373.73642549432</v>
+        <v>62373.73642860889</v>
       </c>
       <c r="FH2" t="n">
-        <v>1.603238890770162e-05</v>
+        <v>1.603238890690107e-05</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.00423488657701324</v>
+        <v>0.004234886576761435</v>
       </c>
       <c r="FJ2" t="n">
-        <v>1.534551064519766e-05</v>
+        <v>1.534551064594005e-05</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.02151067060591378</v>
+        <v>0.02151067060703509</v>
       </c>
       <c r="FL2" t="n">
-        <v>62420.87548286574</v>
+        <v>62420.87548597281</v>
       </c>
       <c r="FM2" t="n">
-        <v>0.9185702062662034</v>
+        <v>0.9185702062575231</v>
       </c>
       <c r="FN2" t="n">
-        <v>0.9185702062662034</v>
+        <v>0.9185702062575231</v>
       </c>
       <c r="FO2" t="n">
-        <v>295034.0214263615</v>
+        <v>295034.0214363837</v>
       </c>
       <c r="FP2" t="n">
-        <v>362988.4086436364</v>
+        <v>362988.4086576834</v>
       </c>
       <c r="FQ2" t="n">
-        <v>3788.783891564113</v>
+        <v>3788.783891609127</v>
       </c>
       <c r="FR2" t="n">
-        <v>716.0444568078876</v>
+        <v>716.0444568080811</v>
       </c>
       <c r="FS2" t="n">
-        <v>1004.555855530282</v>
+        <v>1004.555855530341</v>
       </c>
       <c r="FT2" t="n">
-        <v>308.6467825558676</v>
+        <v>308.6467825649992</v>
       </c>
       <c r="FU2" t="n">
-        <v>0.9992433487767032</v>
+        <v>0.9992433487768605</v>
       </c>
       <c r="FV2" t="n">
-        <v>1.534551064519766e-05</v>
+        <v>1.534551064594005e-05</v>
       </c>
       <c r="FW2" t="n">
-        <v>0.02151067060591378</v>
+        <v>0.02151067060703509</v>
       </c>
       <c r="FX2" t="inlineStr">
         <is>
@@ -8104,97 +8104,97 @@
         <v>1</v>
       </c>
       <c r="FZ2" t="n">
-        <v>245.623399870924</v>
+        <v>245.623399878898</v>
       </c>
       <c r="GA2" t="n">
-        <v>70805.419308888</v>
+        <v>70805.41930583856</v>
       </c>
       <c r="GB2" t="n">
-        <v>1.004980274782626</v>
+        <v>1.004980274706576</v>
       </c>
       <c r="GC2" t="n">
-        <v>301255.1604563053</v>
+        <v>301255.1604620302</v>
       </c>
       <c r="GD2" t="n">
-        <v>371709.6968144471</v>
+        <v>371709.6968224694</v>
       </c>
       <c r="GE2" t="n">
-        <v>3788.7838915562</v>
+        <v>3788.783891601214</v>
       </c>
       <c r="GF2" t="n">
-        <v>-558904.2840057769</v>
+        <v>-558904.2840390231</v>
       </c>
       <c r="GG2" t="n">
-        <v>716.2078264161036</v>
+        <v>716.2078264162211</v>
       </c>
       <c r="GH2" t="n">
-        <v>1004.778332387563</v>
+        <v>1004.778332387496</v>
       </c>
       <c r="GI2" t="n">
-        <v>1.402914482819132</v>
+        <v>1.402914482818809</v>
       </c>
       <c r="GJ2" t="n">
-        <v>0.9992703300966856</v>
+        <v>0.9992703300968265</v>
       </c>
       <c r="GK2" t="n">
-        <v>314.2765528734504</v>
+        <v>314.27655287856</v>
       </c>
       <c r="GL2" t="n">
-        <v>99261.6521896268</v>
+        <v>99261.65218534294</v>
       </c>
       <c r="GM2" t="n">
-        <v>1.007438399362552e-05</v>
+        <v>1.00743839940603e-05</v>
       </c>
       <c r="GN2" t="n">
-        <v>70753.88657344406</v>
+        <v>70753.88657040679</v>
       </c>
       <c r="GO2" t="n">
-        <v>1.413349921013849e-05</v>
+        <v>1.41334992107452e-05</v>
       </c>
       <c r="GP2" t="n">
-        <v>0.004085025008046597</v>
+        <v>0.004085025007912101</v>
       </c>
       <c r="GQ2" t="n">
-        <v>1.580534532942965e-05</v>
+        <v>1.580534532984599e-05</v>
       </c>
       <c r="GR2" t="n">
-        <v>0.02220721764163469</v>
+        <v>0.02220721764226462</v>
       </c>
       <c r="GS2" t="n">
-        <v>70805.419308888</v>
+        <v>70805.41930583856</v>
       </c>
       <c r="GT2" t="n">
-        <v>1.004980274782626</v>
+        <v>1.004980274706576</v>
       </c>
       <c r="GU2" t="n">
-        <v>1.004980274782626</v>
+        <v>1.004980274706576</v>
       </c>
       <c r="GV2" t="n">
-        <v>301255.1604563053</v>
+        <v>301255.1604620302</v>
       </c>
       <c r="GW2" t="n">
-        <v>371709.6968144471</v>
+        <v>371709.6968224694</v>
       </c>
       <c r="GX2" t="n">
-        <v>3788.7838915562</v>
+        <v>3788.783891601214</v>
       </c>
       <c r="GY2" t="n">
-        <v>716.2078264161036</v>
+        <v>716.2078264162211</v>
       </c>
       <c r="GZ2" t="n">
-        <v>1004.778332387563</v>
+        <v>1004.778332387496</v>
       </c>
       <c r="HA2" t="n">
-        <v>314.2765528734504</v>
+        <v>314.27655287856</v>
       </c>
       <c r="HB2" t="n">
-        <v>0.9992703300966856</v>
+        <v>0.9992703300968265</v>
       </c>
       <c r="HC2" t="n">
-        <v>1.580534532942965e-05</v>
+        <v>1.580534532984599e-05</v>
       </c>
       <c r="HD2" t="n">
-        <v>0.02220721764163469</v>
+        <v>0.02220721764226462</v>
       </c>
       <c r="HE2" t="inlineStr">
         <is>
@@ -8205,97 +8205,97 @@
         <v>1</v>
       </c>
       <c r="HG2" t="n">
-        <v>268.1325478429533</v>
+        <v>268.1325478429226</v>
       </c>
       <c r="HH2" t="n">
-        <v>96169.14343003971</v>
+        <v>96169.14341496417</v>
       </c>
       <c r="HI2" t="n">
-        <v>1.25027621047052</v>
+        <v>1.250276210274545</v>
       </c>
       <c r="HJ2" t="n">
-        <v>317337.6916891145</v>
+        <v>317337.6916891277</v>
       </c>
       <c r="HK2" t="n">
-        <v>394256.0099172507</v>
+        <v>394256.0099172628</v>
       </c>
       <c r="HL2" t="n">
-        <v>3788.783891562864</v>
+        <v>3788.783891607877</v>
       </c>
       <c r="HM2" t="n">
-        <v>-621640.2681538395</v>
+        <v>-621640.2681657806</v>
       </c>
       <c r="HN2" t="n">
-        <v>716.7853702994557</v>
+        <v>716.7853702994061</v>
       </c>
       <c r="HO2" t="n">
-        <v>1005.511312851257</v>
+        <v>1005.511312850945</v>
       </c>
       <c r="HP2" t="n">
-        <v>1.402806690140981</v>
+        <v>1.402806690140643</v>
       </c>
       <c r="HQ2" t="n">
-        <v>0.9993647230925626</v>
+        <v>0.9993647230926613</v>
       </c>
       <c r="HR2" t="n">
-        <v>328.3798436109176</v>
+        <v>328.3798436108913</v>
       </c>
       <c r="HS2" t="n">
-        <v>134821.436804935</v>
+        <v>134821.4367837809</v>
       </c>
       <c r="HT2" t="n">
-        <v>7.417218090078949e-06</v>
+        <v>7.417218091242746e-06</v>
       </c>
       <c r="HU2" t="n">
-        <v>96108.35031830757</v>
+        <v>96108.35030325095</v>
       </c>
       <c r="HV2" t="n">
-        <v>1.040492315899747e-05</v>
+        <v>1.040492316062753e-05</v>
       </c>
       <c r="HW2" t="n">
-        <v>0.003742747758418675</v>
+        <v>0.003742747758417033</v>
       </c>
       <c r="HX2" t="n">
-        <v>1.696534104365319e-05</v>
+        <v>1.696534104364934e-05</v>
       </c>
       <c r="HY2" t="n">
-        <v>0.02397353035650667</v>
+        <v>0.02397353035649895</v>
       </c>
       <c r="HZ2" t="n">
-        <v>96169.14343003971</v>
+        <v>96169.14341496417</v>
       </c>
       <c r="IA2" t="n">
-        <v>1.25027621047052</v>
+        <v>1.250276210274545</v>
       </c>
       <c r="IB2" t="n">
-        <v>1.25027621047052</v>
+        <v>1.250276210274545</v>
       </c>
       <c r="IC2" t="n">
-        <v>317337.6916891145</v>
+        <v>317337.6916891277</v>
       </c>
       <c r="ID2" t="n">
-        <v>394256.0099172507</v>
+        <v>394256.0099172628</v>
       </c>
       <c r="IE2" t="n">
-        <v>3788.783891562864</v>
+        <v>3788.783891607877</v>
       </c>
       <c r="IF2" t="n">
-        <v>716.7853702994557</v>
+        <v>716.7853702994061</v>
       </c>
       <c r="IG2" t="n">
-        <v>1005.511312851257</v>
+        <v>1005.511312850945</v>
       </c>
       <c r="IH2" t="n">
-        <v>328.3798436109176</v>
+        <v>328.3798436108913</v>
       </c>
       <c r="II2" t="n">
-        <v>0.9993647230925626</v>
+        <v>0.9993647230926613</v>
       </c>
       <c r="IJ2" t="n">
-        <v>1.696534104365319e-05</v>
+        <v>1.696534104364934e-05</v>
       </c>
       <c r="IK2" t="n">
-        <v>0.02397353035650667</v>
+        <v>0.02397353035649895</v>
       </c>
       <c r="IL2" t="inlineStr">
         <is>
@@ -8306,52 +8306,52 @@
         <v>1</v>
       </c>
       <c r="IN2" t="n">
-        <v>0.025895461613181</v>
+        <v>0.02589546159960129</v>
       </c>
       <c r="IO2" t="n">
-        <v>0.002229373808187881</v>
+        <v>0.002229373816072583</v>
       </c>
       <c r="IP2" t="n">
-        <v>0.01188913901103488</v>
+        <v>0.01188913901043561</v>
       </c>
       <c r="IQ2" t="n">
-        <v>0.03204945911907212</v>
+        <v>0.03204945912459432</v>
       </c>
       <c r="IR2" t="n">
-        <v>0.04286665274551164</v>
+        <v>0.04286665275402437</v>
       </c>
       <c r="IS2" t="n">
-        <v>0.1149300862969875</v>
+        <v>0.1149300863047282</v>
       </c>
       <c r="IT2" t="n">
-        <v>-0.1149300862969875</v>
+        <v>-0.1149300863047282</v>
       </c>
       <c r="IU2" t="n">
-        <v>0.4279012568739008</v>
+        <v>0.4279012567183635</v>
       </c>
       <c r="IV2" t="n">
-        <v>0.8102154608989928</v>
+        <v>0.8102154606957793</v>
       </c>
       <c r="IW2" t="n">
-        <v>390092.5911088225</v>
+        <v>390092.5909999647</v>
       </c>
       <c r="IX2" t="n">
-        <v>2.790805431940314</v>
+        <v>2.790805431296536</v>
       </c>
       <c r="IY2" t="n">
-        <v>380593.4359520305</v>
+        <v>380593.4359522429</v>
       </c>
       <c r="IZ2" t="n">
         <v>0</v>
       </c>
       <c r="JA2" t="n">
-        <v>362988.4086417615</v>
+        <v>362988.4086558085</v>
       </c>
       <c r="JB2" t="n">
-        <v>2673.602139019582</v>
+        <v>2673.602137824579</v>
       </c>
       <c r="JC2" t="n">
-        <v>6.664338489626431</v>
+        <v>6.664338502484853</v>
       </c>
     </row>
     <row r="3">
@@ -8359,145 +8359,145 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0156119256537027</v>
+        <v>0.01561192565375398</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.824277019651166e-07</v>
+        <v>-1.82427701968076e-07</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01377981236501761</v>
+        <v>0.01377981236501943</v>
       </c>
       <c r="E3" t="n">
-        <v>0.02533404515323261</v>
+        <v>0.02533404515320879</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05472560074425097</v>
+        <v>0.05472560074428023</v>
       </c>
       <c r="H3" t="n">
-        <v>-9.105216580707065e-14</v>
+        <v>-1.870795185432428e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>278.0073547187528</v>
+        <v>278.0073547159269</v>
       </c>
       <c r="K3" t="n">
-        <v>113.5953858927034</v>
+        <v>113.5953858915488</v>
       </c>
       <c r="L3" t="n">
-        <v>253.7403743624696</v>
+        <v>253.7403743598904</v>
       </c>
       <c r="M3" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="N3" t="n">
-        <v>278.0073547187528</v>
+        <v>278.0073547159269</v>
       </c>
       <c r="O3" t="n">
-        <v>113.5953858927034</v>
+        <v>113.5953858915488</v>
       </c>
       <c r="P3" t="n">
-        <v>253.7403743624696</v>
+        <v>253.7403743598904</v>
       </c>
       <c r="Q3" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="R3" t="n">
-        <v>257.0420666642554</v>
+        <v>257.0420666649397</v>
       </c>
       <c r="S3" t="n">
-        <v>84687.5971034918</v>
+        <v>84687.5971042795</v>
       </c>
       <c r="T3" t="n">
-        <v>1.148586371863666</v>
+        <v>1.148586371871288</v>
       </c>
       <c r="U3" t="n">
-        <v>309408.3631748242</v>
+        <v>309408.3631753132</v>
       </c>
       <c r="V3" t="n">
-        <v>383140.3864497304</v>
+        <v>383140.3864504158</v>
       </c>
       <c r="W3" t="n">
         <v>3782.917347718243</v>
       </c>
       <c r="X3" t="n">
-        <v>-589228.5066278306</v>
+        <v>-589228.5066297336</v>
       </c>
       <c r="Y3" t="n">
-        <v>716.4769681994031</v>
+        <v>716.4769681994209</v>
       </c>
       <c r="Z3" t="n">
-        <v>1005.158877009344</v>
+        <v>1005.158877009367</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.402918616540368</v>
+        <v>1.402918616540365</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.9992996080680512</v>
+        <v>0.9992996080680541</v>
       </c>
       <c r="AC3" t="n">
-        <v>321.508700006402</v>
+        <v>321.5087000068305</v>
       </c>
       <c r="AD3" t="n">
-        <v>118726.8971138528</v>
+        <v>118726.8971149572</v>
       </c>
       <c r="AE3" t="n">
-        <v>8.42269127138944e-06</v>
+        <v>8.422691271311094e-06</v>
       </c>
       <c r="AF3" t="n">
-        <v>84628.49926864341</v>
+        <v>84628.49926943082</v>
       </c>
       <c r="AG3" t="n">
-        <v>1.181635038600431e-05</v>
+        <v>1.181635038589437e-05</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.003904192220030414</v>
+        <v>0.00390419222002004</v>
       </c>
       <c r="AI3" t="n">
-        <v>1.639904245965524e-05</v>
+        <v>1.639904245969049e-05</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.02310982003031817</v>
+        <v>0.02310982003037186</v>
       </c>
       <c r="AK3" t="n">
-        <v>84687.5971034918</v>
+        <v>84687.5971042795</v>
       </c>
       <c r="AL3" t="n">
-        <v>1.148586371863666</v>
+        <v>1.148586371871288</v>
       </c>
       <c r="AM3" t="n">
-        <v>1.148586371863666</v>
+        <v>1.148586371871288</v>
       </c>
       <c r="AN3" t="n">
-        <v>309408.3631748242</v>
+        <v>309408.3631753132</v>
       </c>
       <c r="AO3" t="n">
-        <v>383140.3864497304</v>
+        <v>383140.3864504158</v>
       </c>
       <c r="AP3" t="n">
         <v>3782.917347718243</v>
       </c>
       <c r="AQ3" t="n">
-        <v>716.4769681994031</v>
+        <v>716.4769681994209</v>
       </c>
       <c r="AR3" t="n">
-        <v>1005.158877009344</v>
+        <v>1005.158877009367</v>
       </c>
       <c r="AS3" t="n">
-        <v>321.508700006402</v>
+        <v>321.5087000068305</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.9992996080680512</v>
+        <v>0.9992996080680541</v>
       </c>
       <c r="AU3" t="n">
-        <v>1.639904245965524e-05</v>
+        <v>1.639904245969049e-05</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.02310982003031817</v>
+        <v>0.02310982003037186</v>
       </c>
       <c r="AW3" t="inlineStr">
         <is>
@@ -8511,10 +8511,10 @@
         <v>295.6000000000885</v>
       </c>
       <c r="AZ3" t="n">
-        <v>137999.9999951876</v>
+        <v>137999.9999951878</v>
       </c>
       <c r="BA3" t="n">
-        <v>1.627145819755043</v>
+        <v>1.627145819755046</v>
       </c>
       <c r="BB3" t="n">
         <v>336973.3475828946</v>
@@ -8526,7 +8526,7 @@
         <v>3782.91734772336</v>
       </c>
       <c r="BE3" t="n">
-        <v>-696445.9368987705</v>
+        <v>-696445.9368987704</v>
       </c>
       <c r="BF3" t="n">
         <v>717.8632360362554</v>
@@ -8544,16 +8544,16 @@
         <v>344.8092213940488</v>
       </c>
       <c r="BK3" t="n">
-        <v>193456.8974370098</v>
+        <v>193456.8974370101</v>
       </c>
       <c r="BL3" t="n">
-        <v>5.169110087303055e-06</v>
+        <v>5.169110087303047e-06</v>
       </c>
       <c r="BM3" t="n">
-        <v>137934.6617460247</v>
+        <v>137934.6617460249</v>
       </c>
       <c r="BN3" t="n">
-        <v>7.249809346988306e-06</v>
+        <v>7.249809346988295e-06</v>
       </c>
       <c r="BO3" t="n">
         <v>0.003395798695745237</v>
@@ -8565,13 +8565,13 @@
         <v>0.02606863419706635</v>
       </c>
       <c r="BR3" t="n">
-        <v>137999.9999951876</v>
+        <v>137999.9999951878</v>
       </c>
       <c r="BS3" t="n">
-        <v>1.627145819755043</v>
+        <v>1.627145819755046</v>
       </c>
       <c r="BT3" t="n">
-        <v>1.627145819755043</v>
+        <v>1.627145819755046</v>
       </c>
       <c r="BU3" t="n">
         <v>336973.3475828946</v>
@@ -8612,10 +8612,10 @@
         <v>295.6000000000885</v>
       </c>
       <c r="CG3" t="n">
-        <v>137999.9999951876</v>
+        <v>137999.9999951878</v>
       </c>
       <c r="CH3" t="n">
-        <v>1.627145819755043</v>
+        <v>1.627145819755046</v>
       </c>
       <c r="CI3" t="n">
         <v>336973.3475828946</v>
@@ -8627,7 +8627,7 @@
         <v>3782.91734772336</v>
       </c>
       <c r="CL3" t="n">
-        <v>-696445.9368987705</v>
+        <v>-696445.9368987704</v>
       </c>
       <c r="CM3" t="n">
         <v>717.8632360362554</v>
@@ -8645,16 +8645,16 @@
         <v>344.8092213940488</v>
       </c>
       <c r="CR3" t="n">
-        <v>193456.8974370098</v>
+        <v>193456.8974370101</v>
       </c>
       <c r="CS3" t="n">
-        <v>5.169110087303055e-06</v>
+        <v>5.169110087303047e-06</v>
       </c>
       <c r="CT3" t="n">
-        <v>137934.6617460247</v>
+        <v>137934.6617460249</v>
       </c>
       <c r="CU3" t="n">
-        <v>7.249809346988306e-06</v>
+        <v>7.249809346988295e-06</v>
       </c>
       <c r="CV3" t="n">
         <v>0.003395798695745237</v>
@@ -8666,13 +8666,13 @@
         <v>0.02606863419706635</v>
       </c>
       <c r="CY3" t="n">
-        <v>137999.9999951876</v>
+        <v>137999.9999951878</v>
       </c>
       <c r="CZ3" t="n">
-        <v>1.627145819755043</v>
+        <v>1.627145819755046</v>
       </c>
       <c r="DA3" t="n">
-        <v>1.627145819755043</v>
+        <v>1.627145819755046</v>
       </c>
       <c r="DB3" t="n">
         <v>336973.3475828946</v>
@@ -8710,37 +8710,37 @@
         <v>1</v>
       </c>
       <c r="DM3" t="n">
-        <v>0.0160788898466451</v>
+        <v>0.0160788898466445</v>
       </c>
       <c r="DN3" t="n">
-        <v>-1.826635901007585e-07</v>
+        <v>-1.826635901037969e-07</v>
       </c>
       <c r="DO3" t="n">
-        <v>0.01379745678869774</v>
+        <v>0.01379745678869764</v>
       </c>
       <c r="DP3" t="n">
-        <v>0.0250966502684785</v>
+        <v>0.02509665026848092</v>
       </c>
       <c r="DQ3" t="n">
         <v>0</v>
       </c>
       <c r="DR3" t="n">
-        <v>0.05497281424023125</v>
+        <v>0.05497281424023295</v>
       </c>
       <c r="DS3" t="n">
-        <v>-0.05497281424023125</v>
+        <v>-0.05497281424023295</v>
       </c>
       <c r="DT3" t="n">
-        <v>0.8646962110612155</v>
+        <v>0.8646962110512736</v>
       </c>
       <c r="DU3" t="n">
-        <v>0.8646962110612155</v>
+        <v>0.8646962110512736</v>
       </c>
       <c r="DV3" t="n">
-        <v>509376.8386525891</v>
+        <v>509376.8386496966</v>
       </c>
       <c r="DW3" t="n">
-        <v>2.801075364059125</v>
+        <v>2.801075364049241</v>
       </c>
       <c r="DX3" t="n">
         <v>421784.4310884894</v>
@@ -8749,154 +8749,154 @@
         <v>0</v>
       </c>
       <c r="DZ3" t="n">
-        <v>383140.3864497301</v>
+        <v>383140.3864504158</v>
       </c>
       <c r="EA3" t="n">
-        <v>1538.27951137803</v>
+        <v>1538.279511358356</v>
       </c>
       <c r="EB3" t="n">
         <v>0</v>
       </c>
       <c r="EC3" t="n">
-        <v>0.02693962188699939</v>
+        <v>0.02693962188557554</v>
       </c>
       <c r="ED3" t="n">
-        <v>0.002766125130286845</v>
+        <v>0.002766125129917359</v>
       </c>
       <c r="EE3" t="n">
-        <v>0.01174717696696274</v>
+        <v>0.01174717696689671</v>
       </c>
       <c r="EF3" t="n">
-        <v>0.03296430785396036</v>
+        <v>0.03296430785428122</v>
       </c>
       <c r="EG3" t="n">
-        <v>0.04275610682211924</v>
+        <v>0.04275610682138322</v>
       </c>
       <c r="EH3" t="n">
-        <v>0.1171733386603286</v>
+        <v>0.117173338658054</v>
       </c>
       <c r="EI3" t="n">
-        <v>1.348099409881343e-11</v>
+        <v>1.35605138229522e-11</v>
       </c>
       <c r="EJ3" t="n">
         <v>165.3032</v>
       </c>
       <c r="EK3" t="n">
-        <v>138.6446015446156</v>
+        <v>138.6446015385655</v>
       </c>
       <c r="EL3" t="n">
-        <v>124.5676052494678</v>
+        <v>124.5676052458997</v>
       </c>
       <c r="EM3" t="n">
-        <v>-60.87066009070367</v>
+        <v>-60.87066008422516</v>
       </c>
       <c r="EN3" t="n">
-        <v>-26.04270713404987</v>
+        <v>-26.0427071322918</v>
       </c>
       <c r="EO3" t="n">
-        <v>258.2086428954624</v>
+        <v>258.2086428880663</v>
       </c>
       <c r="EP3" t="n">
-        <v>124.5676052494678</v>
+        <v>124.5676052458997</v>
       </c>
       <c r="EQ3" t="n">
-        <v>-226.1738600907037</v>
+        <v>-226.1738600842252</v>
       </c>
       <c r="ER3" t="n">
         <v>-61.15576777799674</v>
       </c>
       <c r="ES3" t="n">
-        <v>234.275814718187</v>
+        <v>234.275814720284</v>
       </c>
       <c r="ET3" t="n">
-        <v>59999.97848152582</v>
+        <v>59999.97848336235</v>
       </c>
       <c r="EU3" t="n">
-        <v>0.89289233450886</v>
+        <v>0.8928923345281925</v>
       </c>
       <c r="EV3" t="n">
-        <v>293150.1478796063</v>
+        <v>293150.1478811043</v>
       </c>
       <c r="EW3" t="n">
-        <v>360347.4752197823</v>
+        <v>360347.4752218822</v>
       </c>
       <c r="EX3" t="n">
-        <v>3788.919886560372</v>
+        <v>3788.919886560557</v>
       </c>
       <c r="EY3" t="n">
-        <v>-527304.8181060895</v>
+        <v>-527304.8181119784</v>
       </c>
       <c r="EZ3" t="n">
-        <v>716.0006319736692</v>
+        <v>716.0006319737026</v>
       </c>
       <c r="FA3" t="n">
-        <v>1004.493576218246</v>
+        <v>1004.493576218292</v>
       </c>
       <c r="FB3" t="n">
         <v>1.402922750849172</v>
       </c>
       <c r="FC3" t="n">
-        <v>0.9992365543642966</v>
+        <v>0.9992365543643026</v>
       </c>
       <c r="FD3" t="n">
-        <v>306.9215135798382</v>
+        <v>306.9215135812137</v>
       </c>
       <c r="FE3" t="n">
-        <v>84111.18606277154</v>
+        <v>84111.18606534658</v>
       </c>
       <c r="FF3" t="n">
-        <v>1.188902507276152e-05</v>
+        <v>1.188902507239754e-05</v>
       </c>
       <c r="FG3" t="n">
-        <v>59954.25336987378</v>
+        <v>59954.25337170925</v>
       </c>
       <c r="FH3" t="n">
-        <v>1.667938375999336e-05</v>
+        <v>1.667938375948273e-05</v>
       </c>
       <c r="FI3" t="n">
-        <v>0.004282461007751204</v>
+        <v>0.004282461007712943</v>
       </c>
       <c r="FJ3" t="n">
-        <v>1.520497864507262e-05</v>
+        <v>1.520497864518457e-05</v>
       </c>
       <c r="FK3" t="n">
-        <v>0.02129820211861799</v>
+        <v>0.02129820211878716</v>
       </c>
       <c r="FL3" t="n">
-        <v>59999.97848152582</v>
+        <v>59999.97848336235</v>
       </c>
       <c r="FM3" t="n">
-        <v>0.89289233450886</v>
+        <v>0.8928923345281925</v>
       </c>
       <c r="FN3" t="n">
-        <v>0.89289233450886</v>
+        <v>0.8928923345281925</v>
       </c>
       <c r="FO3" t="n">
-        <v>293150.1478796063</v>
+        <v>293150.1478811043</v>
       </c>
       <c r="FP3" t="n">
-        <v>360347.4752197823</v>
+        <v>360347.4752218822</v>
       </c>
       <c r="FQ3" t="n">
-        <v>3788.919886560372</v>
+        <v>3788.919886560557</v>
       </c>
       <c r="FR3" t="n">
-        <v>716.0006319736692</v>
+        <v>716.0006319737026</v>
       </c>
       <c r="FS3" t="n">
-        <v>1004.493576218246</v>
+        <v>1004.493576218292</v>
       </c>
       <c r="FT3" t="n">
-        <v>306.9215135798382</v>
+        <v>306.9215135812137</v>
       </c>
       <c r="FU3" t="n">
-        <v>0.9992365543642966</v>
+        <v>0.9992365543643026</v>
       </c>
       <c r="FV3" t="n">
-        <v>1.520497864507262e-05</v>
+        <v>1.520497864518457e-05</v>
       </c>
       <c r="FW3" t="n">
-        <v>0.02129820211861799</v>
+        <v>0.02129820211878716</v>
       </c>
       <c r="FX3" t="inlineStr">
         <is>
@@ -8907,97 +8907,97 @@
         <v>1</v>
       </c>
       <c r="FZ3" t="n">
-        <v>243.8746425921358</v>
+        <v>243.874642593595</v>
       </c>
       <c r="GA3" t="n">
-        <v>69028.44858426412</v>
+        <v>69028.44858566133</v>
       </c>
       <c r="GB3" t="n">
-        <v>0.9867897489195199</v>
+        <v>0.9867897489335845</v>
       </c>
       <c r="GC3" t="n">
-        <v>300006.0987976245</v>
+        <v>300006.0987986668</v>
       </c>
       <c r="GD3" t="n">
-        <v>369958.6379883147</v>
+        <v>369958.637989776</v>
       </c>
       <c r="GE3" t="n">
-        <v>3788.919886566629</v>
+        <v>3788.919886566815</v>
       </c>
       <c r="GF3" t="n">
-        <v>-554062.8451583574</v>
+        <v>-554062.8451624702</v>
       </c>
       <c r="GG3" t="n">
-        <v>716.1724365116518</v>
+        <v>716.1724365116805</v>
       </c>
       <c r="GH3" t="n">
-        <v>1004.730309428868</v>
+        <v>1004.730309428906</v>
       </c>
       <c r="GI3" t="n">
-        <v>1.402916753293006</v>
+        <v>1.402916753293002</v>
       </c>
       <c r="GJ3" t="n">
-        <v>0.9992648418853655</v>
+        <v>0.9992648418853707</v>
       </c>
       <c r="GK3" t="n">
-        <v>313.1543021801305</v>
+        <v>313.1543021810686</v>
       </c>
       <c r="GL3" t="n">
-        <v>96770.14555133675</v>
+        <v>96770.14555329579</v>
       </c>
       <c r="GM3" t="n">
-        <v>1.033376558754371e-05</v>
+        <v>1.033376558733451e-05</v>
       </c>
       <c r="GN3" t="n">
-        <v>68977.82446762601</v>
+        <v>68977.82446902257</v>
       </c>
       <c r="GO3" t="n">
-        <v>1.449741286736782e-05</v>
+        <v>1.449741286707429e-05</v>
       </c>
       <c r="GP3" t="n">
-        <v>0.004114250297844691</v>
+        <v>0.004114250297820116</v>
       </c>
       <c r="GQ3" t="n">
-        <v>1.57135219824505e-05</v>
+        <v>1.57135219825272e-05</v>
       </c>
       <c r="GR3" t="n">
-        <v>0.02206795606646316</v>
+        <v>0.02206795606657945</v>
       </c>
       <c r="GS3" t="n">
-        <v>69028.44858426412</v>
+        <v>69028.44858566133</v>
       </c>
       <c r="GT3" t="n">
-        <v>0.9867897489195199</v>
+        <v>0.9867897489335845</v>
       </c>
       <c r="GU3" t="n">
-        <v>0.9867897489195199</v>
+        <v>0.9867897489335845</v>
       </c>
       <c r="GV3" t="n">
-        <v>300006.0987976245</v>
+        <v>300006.0987986668</v>
       </c>
       <c r="GW3" t="n">
-        <v>369958.6379883147</v>
+        <v>369958.637989776</v>
       </c>
       <c r="GX3" t="n">
-        <v>3788.919886566629</v>
+        <v>3788.919886566815</v>
       </c>
       <c r="GY3" t="n">
-        <v>716.1724365116518</v>
+        <v>716.1724365116805</v>
       </c>
       <c r="GZ3" t="n">
-        <v>1004.730309428868</v>
+        <v>1004.730309428906</v>
       </c>
       <c r="HA3" t="n">
-        <v>313.1543021801305</v>
+        <v>313.1543021810686</v>
       </c>
       <c r="HB3" t="n">
-        <v>0.9992648418853655</v>
+        <v>0.9992648418853707</v>
       </c>
       <c r="HC3" t="n">
-        <v>1.57135219824505e-05</v>
+        <v>1.57135219825272e-05</v>
       </c>
       <c r="HD3" t="n">
-        <v>0.02206795606646316</v>
+        <v>0.02206795606657945</v>
       </c>
       <c r="HE3" t="inlineStr">
         <is>
@@ -9008,97 +9008,97 @@
         <v>1</v>
       </c>
       <c r="HG3" t="n">
-        <v>267.5608469988076</v>
+        <v>267.5608469992969</v>
       </c>
       <c r="HH3" t="n">
-        <v>95409.78892209398</v>
+        <v>95409.78892264164</v>
       </c>
       <c r="HI3" t="n">
-        <v>1.243057550872082</v>
+        <v>1.24305755087694</v>
       </c>
       <c r="HJ3" t="n">
-        <v>316929.2064538845</v>
+        <v>316929.2064542344</v>
       </c>
       <c r="HK3" t="n">
-        <v>393683.3268525404</v>
+        <v>393683.3268530308</v>
       </c>
       <c r="HL3" t="n">
-        <v>3788.919886564891</v>
+        <v>3788.919886565078</v>
       </c>
       <c r="HM3" t="n">
-        <v>-620083.2872073881</v>
+        <v>-620083.2872088014</v>
       </c>
       <c r="HN3" t="n">
-        <v>716.7674741389551</v>
+        <v>716.76747413897</v>
       </c>
       <c r="HO3" t="n">
-        <v>1005.488635078767</v>
+        <v>1005.488635078784</v>
       </c>
       <c r="HP3" t="n">
-        <v>1.402810076289593</v>
+        <v>1.402810076289588</v>
       </c>
       <c r="HQ3" t="n">
-        <v>0.9993621730097836</v>
+        <v>0.9993621730097864</v>
       </c>
       <c r="HR3" t="n">
-        <v>328.0291303259549</v>
+        <v>328.0291303262551</v>
       </c>
       <c r="HS3" t="n">
-        <v>133756.858808445</v>
+        <v>133756.8588092126</v>
       </c>
       <c r="HT3" t="n">
-        <v>7.47625212574791e-06</v>
+        <v>7.476252125705004e-06</v>
       </c>
       <c r="HU3" t="n">
-        <v>95349.22871542913</v>
+        <v>95349.2287159767</v>
       </c>
       <c r="HV3" t="n">
-        <v>1.048776181488066e-05</v>
+        <v>1.048776181482043e-05</v>
       </c>
       <c r="HW3" t="n">
-        <v>0.003750723525134547</v>
+        <v>0.003750723525127692</v>
       </c>
       <c r="HX3" t="n">
-        <v>1.693635799613357e-05</v>
+        <v>1.693635799615836e-05</v>
       </c>
       <c r="HY3" t="n">
-        <v>0.02392923167044715</v>
+        <v>0.02392923167048504</v>
       </c>
       <c r="HZ3" t="n">
-        <v>95409.78892209398</v>
+        <v>95409.78892264164</v>
       </c>
       <c r="IA3" t="n">
-        <v>1.243057550872082</v>
+        <v>1.24305755087694</v>
       </c>
       <c r="IB3" t="n">
-        <v>1.243057550872082</v>
+        <v>1.24305755087694</v>
       </c>
       <c r="IC3" t="n">
-        <v>316929.2064538845</v>
+        <v>316929.2064542344</v>
       </c>
       <c r="ID3" t="n">
-        <v>393683.3268525404</v>
+        <v>393683.3268530308</v>
       </c>
       <c r="IE3" t="n">
-        <v>3788.919886564891</v>
+        <v>3788.919886565078</v>
       </c>
       <c r="IF3" t="n">
-        <v>716.7674741389551</v>
+        <v>716.76747413897</v>
       </c>
       <c r="IG3" t="n">
-        <v>1005.488635078767</v>
+        <v>1005.488635078784</v>
       </c>
       <c r="IH3" t="n">
-        <v>328.0291303259549</v>
+        <v>328.0291303262551</v>
       </c>
       <c r="II3" t="n">
-        <v>0.9993621730097836</v>
+        <v>0.9993621730097864</v>
       </c>
       <c r="IJ3" t="n">
-        <v>1.693635799613357e-05</v>
+        <v>1.693635799615836e-05</v>
       </c>
       <c r="IK3" t="n">
-        <v>0.02392923167044715</v>
+        <v>0.02392923167048504</v>
       </c>
       <c r="IL3" t="inlineStr">
         <is>
@@ -9109,52 +9109,52 @@
         <v>1</v>
       </c>
       <c r="IN3" t="n">
-        <v>0.02671664060365814</v>
+        <v>0.02671664060290836</v>
       </c>
       <c r="IO3" t="n">
-        <v>0.002776408417100954</v>
+        <v>0.002776408416738345</v>
       </c>
       <c r="IP3" t="n">
-        <v>0.01185591895989139</v>
+        <v>0.01185591895991069</v>
       </c>
       <c r="IQ3" t="n">
-        <v>0.03233884790251056</v>
+        <v>0.03233884790234314</v>
       </c>
       <c r="IR3" t="n">
-        <v>0.04334591739674505</v>
+        <v>0.04334591739646709</v>
       </c>
       <c r="IS3" t="n">
-        <v>0.1170337332799061</v>
+        <v>0.1170337332783676</v>
       </c>
       <c r="IT3" t="n">
-        <v>-0.1170337332799061</v>
+        <v>-0.1170337332783676</v>
       </c>
       <c r="IU3" t="n">
-        <v>0.4517265665984361</v>
+        <v>0.4517265665766994</v>
       </c>
       <c r="IV3" t="n">
-        <v>0.841285577813677</v>
+        <v>0.8412855777858088</v>
       </c>
       <c r="IW3" t="n">
-        <v>395146.7974998704</v>
+        <v>395146.7974941979</v>
       </c>
       <c r="IX3" t="n">
-        <v>2.80107536401255</v>
+        <v>2.801075363992964</v>
       </c>
       <c r="IY3" t="n">
-        <v>380020.7528875204</v>
+        <v>380020.7528879108</v>
       </c>
       <c r="IZ3" t="n">
         <v>0</v>
       </c>
       <c r="JA3" t="n">
-        <v>360347.4752192709</v>
+        <v>360347.4752213708</v>
       </c>
       <c r="JB3" t="n">
-        <v>2843.394124524377</v>
+        <v>2843.39412668912</v>
       </c>
       <c r="JC3" t="n">
-        <v>7.380018006023427</v>
+        <v>7.380018005613131</v>
       </c>
     </row>
   </sheetData>
@@ -9193,7 +9193,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.3827762378997722</v>
+        <v>0.3827762378989895</v>
       </c>
     </row>
     <row r="3">
@@ -9201,7 +9201,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.3927727308011493</v>
+        <v>0.3927727307896264</v>
       </c>
     </row>
   </sheetData>
@@ -10301,13 +10301,13 @@
         <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H2" t="n">
-        <v>1.695580910147723e-10</v>
+        <v>3.312989322666782e-10</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -10338,7 +10338,7 @@
         <v>28</v>
       </c>
       <c r="H3" t="n">
-        <v>2.294811073860591e-11</v>
+        <v>2.328022172134425e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
